--- a/gi_t_is/exps.xlsx
+++ b/gi_t_is/exps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\Kaggle\gi_t_is\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EBFB9F-4D6F-4B77-9EF1-844EDE3BAE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FCEB46-F30F-4A32-90C1-8AA546647185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="272">
   <si>
     <t>main net</t>
   </si>
@@ -997,6 +997,39 @@
   <si>
     <t>SoftBCEWithLogitsLoss+Tversky</t>
   </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-fpn-b3-best-valid-l0-1016-s0-9055?scriptVersionId=99238668</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-fpn-b3-best-valid-l0-1105-s0-8973?scriptVersionId=99206151</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-fpn-b3-best-valid-l0-1105-s0-8973?scriptVersionId=99209014</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-fpn-b3-best-valid-l0-1356-s0-8742?scriptVersionId=99165327</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-fpn-b3-best-valid-l0-1559-s0-8527?scriptVersionId=99159849</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-fpn-b3-best-validl01852-s08256?scriptVersionId=99155291</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/luminide-inference?scriptVersionId=99148327</t>
+  </si>
+  <si>
+    <t>Average (0.860 2.5d pub + lum 0.868)/2.0 thr=0.4</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/union-inference?scriptVersionId=100034169</t>
+  </si>
+  <si>
+    <t>Average [lum 0.868 + (Pub 0.86 + effb2 f01234 2m | 8.5;3)]/2.0</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/union-inference?scriptVersionId=100036345</t>
+  </si>
 </sst>
 </file>
 
@@ -1007,7 +1040,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1083,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1295,7 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1549,31 +1589,74 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1585,57 +1668,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1919,11 +1971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC65"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2459,25 +2511,25 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
       <c r="R7" s="17">
         <v>0.45</v>
       </c>
@@ -2490,9 +2542,9 @@
         <f>SUM(V2:V6)/5</f>
         <v>0.89971999999999996</v>
       </c>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
       <c r="Z7" s="14" t="s">
         <v>72</v>
       </c>
@@ -2505,25 +2557,25 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
       <c r="R8" s="17" t="s">
         <v>90</v>
       </c>
@@ -2536,9 +2588,9 @@
         <f>(V2*V3*V4*V5*V6)^(1/5)</f>
         <v>0.8996939854163285</v>
       </c>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
       <c r="Z8" s="14" t="s">
         <v>73</v>
       </c>
@@ -3012,7 +3064,7 @@
       <c r="P14" s="104">
         <v>128</v>
       </c>
-      <c r="Q14" s="106">
+      <c r="Q14" s="108">
         <v>4</v>
       </c>
       <c r="R14" s="23">
@@ -3030,7 +3082,7 @@
       </c>
       <c r="W14" s="104"/>
       <c r="X14" s="104"/>
-      <c r="Y14" s="108" t="s">
+      <c r="Y14" s="106" t="s">
         <v>87</v>
       </c>
       <c r="Z14" s="26" t="s">
@@ -3063,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="P15" s="105"/>
-      <c r="Q15" s="107"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="23">
         <v>0.4</v>
       </c>
@@ -3092,25 +3144,25 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
       <c r="R16" s="23">
         <v>0.4</v>
       </c>
@@ -3138,25 +3190,25 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="112"/>
       <c r="R17" s="19">
         <v>0.4</v>
       </c>
@@ -3227,7 +3279,7 @@
       <c r="P18" s="104">
         <v>128</v>
       </c>
-      <c r="Q18" s="106">
+      <c r="Q18" s="108">
         <v>0</v>
       </c>
       <c r="R18" s="104">
@@ -3245,7 +3297,7 @@
       </c>
       <c r="W18" s="104"/>
       <c r="X18" s="104"/>
-      <c r="Y18" s="108" t="s">
+      <c r="Y18" s="106" t="s">
         <v>98</v>
       </c>
       <c r="Z18" s="26" t="s">
@@ -3278,7 +3330,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="105"/>
-      <c r="Q19" s="107"/>
+      <c r="Q19" s="109"/>
       <c r="R19" s="105"/>
       <c r="S19" s="79"/>
       <c r="T19" s="23" t="s">
@@ -3301,25 +3353,25 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
       <c r="R20" s="23">
         <v>0.4</v>
       </c>
@@ -3347,25 +3399,25 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
       <c r="R21" s="28">
         <v>0.4</v>
       </c>
@@ -3387,25 +3439,25 @@
       <c r="AB21" s="31"/>
     </row>
     <row r="22" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="115"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="103"/>
       <c r="R22" s="28">
         <v>0.4</v>
       </c>
@@ -3427,25 +3479,25 @@
       <c r="AB22" s="31"/>
     </row>
     <row r="23" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="115"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
       <c r="R23" s="28">
         <v>0.4</v>
       </c>
@@ -3467,25 +3519,25 @@
       <c r="AB23" s="31"/>
     </row>
     <row r="24" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="115"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="103"/>
       <c r="R24" s="28">
         <v>0.4</v>
       </c>
@@ -3720,7 +3772,7 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="95" t="s">
         <v>131</v>
       </c>
       <c r="B28" s="96"/>
@@ -3760,7 +3812,7 @@
       <c r="AB28" s="48"/>
     </row>
     <row r="29" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="95" t="s">
         <v>135</v>
       </c>
       <c r="B29" s="96"/>
@@ -3800,7 +3852,7 @@
       <c r="AB29" s="48"/>
     </row>
     <row r="30" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="95" t="s">
         <v>139</v>
       </c>
       <c r="B30" s="96"/>
@@ -3840,7 +3892,7 @@
       <c r="AB30" s="48"/>
     </row>
     <row r="31" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="95" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="96"/>
@@ -3880,7 +3932,7 @@
       <c r="AB31" s="48"/>
     </row>
     <row r="32" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="116" t="s">
+      <c r="A32" s="95" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="96"/>
@@ -3920,7 +3972,7 @@
       <c r="AB32" s="48"/>
     </row>
     <row r="33" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="95" t="s">
         <v>144</v>
       </c>
       <c r="B33" s="96"/>
@@ -3960,7 +4012,7 @@
       <c r="AB33" s="49"/>
     </row>
     <row r="34" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="95" t="s">
         <v>147</v>
       </c>
       <c r="B34" s="96"/>
@@ -4000,7 +4052,7 @@
       <c r="AB34" s="50"/>
     </row>
     <row r="35" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="116" t="s">
+      <c r="A35" s="95" t="s">
         <v>148</v>
       </c>
       <c r="B35" s="96"/>
@@ -4040,71 +4092,71 @@
       <c r="AB35" s="49"/>
     </row>
     <row r="36" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="95" t="s">
+      <c r="B36" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="95" t="s">
+      <c r="C36" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="95" t="s">
+      <c r="D36" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="95" t="s">
+      <c r="E36" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="95" t="s">
+      <c r="F36" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="95" t="s">
+      <c r="G36" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="95">
+      <c r="H36" s="97">
         <v>2E-3</v>
       </c>
-      <c r="I36" s="95">
+      <c r="I36" s="97">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J36" s="95" t="s">
+      <c r="J36" s="97" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="64"/>
-      <c r="L36" s="95" t="s">
+      <c r="L36" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="M36" s="95" t="s">
+      <c r="M36" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="95">
+      <c r="N36" s="97">
         <v>15</v>
       </c>
-      <c r="O36" s="95">
+      <c r="O36" s="97">
         <v>13</v>
       </c>
-      <c r="P36" s="95">
+      <c r="P36" s="97">
         <v>64</v>
       </c>
-      <c r="Q36" s="95">
+      <c r="Q36" s="97">
         <v>0</v>
       </c>
-      <c r="R36" s="95">
+      <c r="R36" s="97">
         <v>0.4</v>
       </c>
       <c r="S36" s="77"/>
       <c r="T36" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="U36" s="118" t="s">
+      <c r="U36" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="V36" s="99">
+      <c r="V36" s="114">
         <v>0.91606262570521801</v>
       </c>
       <c r="W36" s="42"/>
       <c r="X36" s="42"/>
-      <c r="Y36" s="102" t="s">
+      <c r="Y36" s="117" t="s">
         <v>115</v>
       </c>
       <c r="Z36" s="44" t="s">
@@ -4141,8 +4193,8 @@
       <c r="T37" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="U37" s="119"/>
-      <c r="V37" s="100"/>
+      <c r="U37" s="99"/>
+      <c r="V37" s="115"/>
       <c r="W37" s="42"/>
       <c r="X37" s="42"/>
       <c r="Y37" s="96"/>
@@ -4180,8 +4232,8 @@
       <c r="T38" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="U38" s="119"/>
-      <c r="V38" s="100"/>
+      <c r="U38" s="99"/>
+      <c r="V38" s="115"/>
       <c r="W38" s="42"/>
       <c r="X38" s="42"/>
       <c r="Y38" s="96"/>
@@ -4197,33 +4249,33 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="97"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
       <c r="K39" s="77"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="97"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
       <c r="S39" s="77"/>
       <c r="T39" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="U39" s="119"/>
-      <c r="V39" s="101"/>
+      <c r="U39" s="99"/>
+      <c r="V39" s="116"/>
       <c r="W39" s="42"/>
       <c r="X39" s="42"/>
-      <c r="Y39" s="97"/>
+      <c r="Y39" s="93"/>
       <c r="Z39" s="44" t="s">
         <v>124</v>
       </c>
@@ -4236,33 +4288,33 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="97"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
       <c r="K40" s="77"/>
-      <c r="L40" s="97"/>
-      <c r="M40" s="97"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="97"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
       <c r="S40" s="77"/>
       <c r="T40" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="U40" s="120"/>
-      <c r="V40" s="101"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="116"/>
       <c r="W40" s="42"/>
       <c r="X40" s="42"/>
-      <c r="Y40" s="97"/>
+      <c r="Y40" s="93"/>
       <c r="Z40" s="44" t="s">
         <v>126</v>
       </c>
@@ -4433,71 +4485,71 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="98" t="s">
+      <c r="D43" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="98" t="s">
+      <c r="E43" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="98" t="s">
+      <c r="F43" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="98" t="s">
+      <c r="G43" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="98">
+      <c r="H43" s="92">
         <v>2E-3</v>
       </c>
-      <c r="I43" s="98">
+      <c r="I43" s="92">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J43" s="98" t="s">
+      <c r="J43" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="93"/>
-      <c r="L43" s="98" t="s">
+      <c r="K43" s="118"/>
+      <c r="L43" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="M43" s="98" t="s">
+      <c r="M43" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="N43" s="98">
+      <c r="N43" s="92">
         <v>18</v>
       </c>
-      <c r="O43" s="98">
+      <c r="O43" s="92">
         <v>16</v>
       </c>
-      <c r="P43" s="98">
+      <c r="P43" s="92">
         <v>64</v>
       </c>
-      <c r="Q43" s="98">
+      <c r="Q43" s="92">
         <v>0</v>
       </c>
-      <c r="R43" s="98">
+      <c r="R43" s="92">
         <v>0.4</v>
       </c>
       <c r="S43" s="82"/>
-      <c r="T43" s="98" t="s">
+      <c r="T43" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="U43" s="98" t="s">
+      <c r="U43" s="92" t="s">
         <v>154</v>
       </c>
       <c r="V43" s="69">
         <v>0.910999237559735</v>
       </c>
-      <c r="W43" s="98"/>
-      <c r="X43" s="98"/>
-      <c r="Y43" s="117" t="s">
+      <c r="W43" s="92"/>
+      <c r="X43" s="92"/>
+      <c r="Y43" s="94" t="s">
         <v>168</v>
       </c>
       <c r="Z43" s="67" t="s">
@@ -4512,33 +4564,33 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="97"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="93"/>
+      <c r="R44" s="93"/>
       <c r="S44" s="82"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
+      <c r="T44" s="93"/>
+      <c r="U44" s="93"/>
       <c r="V44" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="97"/>
+      <c r="W44" s="93"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="93"/>
       <c r="Z44" s="67" t="s">
         <v>171</v>
       </c>
@@ -4891,79 +4943,79 @@
       </c>
     </row>
     <row r="49" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="89" t="s">
+      <c r="C49" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="89" t="s">
+      <c r="D49" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="89" t="s">
+      <c r="E49" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="89" t="s">
+      <c r="F49" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="G49" s="89" t="s">
+      <c r="G49" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="89">
+      <c r="H49" s="120">
         <v>2E-3</v>
       </c>
-      <c r="I49" s="89">
+      <c r="I49" s="120">
         <v>0</v>
       </c>
-      <c r="J49" s="89" t="s">
+      <c r="J49" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="K49" s="89" t="s">
+      <c r="K49" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L49" s="89" t="s">
+      <c r="L49" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="M49" s="89" t="s">
+      <c r="M49" s="120" t="s">
         <v>197</v>
       </c>
-      <c r="N49" s="89">
+      <c r="N49" s="120">
         <v>30</v>
       </c>
-      <c r="O49" s="89">
+      <c r="O49" s="120">
         <v>30</v>
       </c>
-      <c r="P49" s="89">
+      <c r="P49" s="120">
         <v>128</v>
       </c>
-      <c r="Q49" s="89">
+      <c r="Q49" s="120">
         <v>0</v>
       </c>
-      <c r="R49" s="89">
+      <c r="R49" s="120">
         <v>0.4</v>
       </c>
       <c r="S49" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="T49" s="89" t="s">
+      <c r="T49" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="U49" s="89" t="s">
+      <c r="U49" s="120" t="s">
         <v>176</v>
       </c>
       <c r="V49" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W49" s="89" t="s">
+      <c r="W49" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="X49" s="89" t="s">
+      <c r="X49" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="Y49" s="92" t="s">
+      <c r="Y49" s="122" t="s">
         <v>202</v>
       </c>
       <c r="Z49" s="74" t="s">
@@ -4978,35 +5030,35 @@
       </c>
     </row>
     <row r="50" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="90"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="121"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="121"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="121"/>
+      <c r="Q50" s="121"/>
+      <c r="R50" s="121"/>
       <c r="S50" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
+      <c r="T50" s="121"/>
+      <c r="U50" s="121"/>
       <c r="V50" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W50" s="90"/>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="90"/>
+      <c r="W50" s="121"/>
+      <c r="X50" s="121"/>
+      <c r="Y50" s="121"/>
       <c r="Z50" s="74" t="s">
         <v>218</v>
       </c>
@@ -5019,35 +5071,35 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="90"/>
+      <c r="A51" s="121"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="121"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="121"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="121"/>
+      <c r="P51" s="121"/>
+      <c r="Q51" s="121"/>
+      <c r="R51" s="121"/>
       <c r="S51" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="T51" s="90"/>
-      <c r="U51" s="90"/>
+      <c r="T51" s="121"/>
+      <c r="U51" s="121"/>
       <c r="V51" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W51" s="90"/>
-      <c r="X51" s="90"/>
-      <c r="Y51" s="90"/>
+      <c r="W51" s="121"/>
+      <c r="X51" s="121"/>
+      <c r="Y51" s="121"/>
       <c r="Z51" s="74" t="s">
         <v>219</v>
       </c>
@@ -5674,10 +5726,12 @@
       <c r="X59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y59" s="6" t="s">
+      <c r="Y59" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="Z59" s="6"/>
+      <c r="Z59" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="AA59" s="43">
         <v>0.82099999999999995</v>
       </c>
@@ -5751,10 +5805,12 @@
       <c r="X60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y60" s="6" t="s">
+      <c r="Y60" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="Z60" s="6"/>
+      <c r="Z60" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="AA60" s="43">
         <v>0.83899999999999997</v>
       </c>
@@ -5828,10 +5884,12 @@
       <c r="X61" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y61" s="6" t="s">
+      <c r="Y61" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="Z61" s="6"/>
+      <c r="Z61" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="AA61" s="43">
         <v>0.85499999999999998</v>
       </c>
@@ -5905,10 +5963,12 @@
       <c r="X62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y62" s="6" t="s">
+      <c r="Y62" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="Z62" s="6"/>
+      <c r="Z62" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="AA62" s="43">
         <v>0.85899999999999999</v>
       </c>
@@ -5921,47 +5981,47 @@
       <c r="A63" s="88">
         <v>44735</v>
       </c>
-      <c r="B63" s="121" t="s">
+      <c r="B63" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="C63" s="121" t="s">
+      <c r="C63" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="D63" s="121" t="s">
+      <c r="D63" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="E63" s="121" t="s">
+      <c r="E63" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="F63" s="121" t="s">
+      <c r="F63" s="90" t="s">
         <v>247</v>
       </c>
-      <c r="G63" s="121" t="s">
+      <c r="G63" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="121">
+      <c r="H63" s="90">
         <v>1E-3</v>
       </c>
-      <c r="I63" s="121"/>
-      <c r="J63" s="121" t="s">
+      <c r="I63" s="90"/>
+      <c r="J63" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="K63" s="121" t="s">
+      <c r="K63" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="L63" s="121" t="s">
+      <c r="L63" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="M63" s="121" t="s">
+      <c r="M63" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="N63" s="121">
+      <c r="N63" s="90">
         <v>29</v>
       </c>
-      <c r="O63" s="121">
+      <c r="O63" s="90">
         <v>29</v>
       </c>
-      <c r="P63" s="121">
+      <c r="P63" s="90">
         <v>32</v>
       </c>
       <c r="Q63" s="4"/>
@@ -5969,23 +6029,25 @@
         <v>0.5</v>
       </c>
       <c r="S63" s="4"/>
-      <c r="T63" s="121" t="s">
+      <c r="T63" s="90" t="s">
         <v>118</v>
       </c>
       <c r="U63" s="4"/>
-      <c r="V63" s="121">
+      <c r="V63" s="90">
         <v>0.89729999999999999</v>
       </c>
-      <c r="W63" s="121" t="s">
+      <c r="W63" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="X63" s="121" t="s">
+      <c r="X63" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="Y63" s="121" t="s">
+      <c r="Y63" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Z63" s="6"/>
+      <c r="Z63" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="AA63" s="43">
         <v>0.86299999999999999</v>
       </c>
@@ -6021,8 +6083,10 @@
       <c r="V64" s="91"/>
       <c r="W64" s="91"/>
       <c r="X64" s="91"/>
-      <c r="Y64" s="91"/>
-      <c r="Z64" s="6"/>
+      <c r="Y64" s="125"/>
+      <c r="Z64" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="AA64" s="43">
         <v>0.86399999999999999</v>
       </c>
@@ -6096,10 +6160,12 @@
       <c r="X65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y65" s="6" t="s">
+      <c r="Y65" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="Z65" s="6"/>
+      <c r="Z65" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="AA65" s="43">
         <v>0.86799999999999999</v>
       </c>
@@ -6108,29 +6174,185 @@
         <v>3.7499999999999978E-2</v>
       </c>
     </row>
+    <row r="66" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="96"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="89">
+        <v>0.4</v>
+      </c>
+      <c r="S66" s="89"/>
+      <c r="T66" s="89"/>
+      <c r="U66" s="89"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA66" s="49">
+        <v>0.874</v>
+      </c>
+      <c r="AB66" s="49"/>
+    </row>
+    <row r="67" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="96"/>
+      <c r="K67" s="96"/>
+      <c r="L67" s="96"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="96"/>
+      <c r="O67" s="96"/>
+      <c r="P67" s="96"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="89">
+        <v>0.4</v>
+      </c>
+      <c r="S67" s="89"/>
+      <c r="T67" s="89"/>
+      <c r="U67" s="89"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="47"/>
+      <c r="Z67" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA67" s="49">
+        <v>0.873</v>
+      </c>
+      <c r="AB67" s="49"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB61" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="142">
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
-    <mergeCell ref="Y63:Y64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
+  <mergeCells count="144">
+    <mergeCell ref="A66:Q66"/>
+    <mergeCell ref="A67:Q67"/>
+    <mergeCell ref="U49:U52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="W49:W52"/>
+    <mergeCell ref="X49:X52"/>
+    <mergeCell ref="Y49:Y52"/>
+    <mergeCell ref="O49:O52"/>
+    <mergeCell ref="P49:P52"/>
+    <mergeCell ref="Q49:Q52"/>
+    <mergeCell ref="R49:R52"/>
+    <mergeCell ref="T49:T52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="N49:N52"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="R36:R40"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="V36:V40"/>
+    <mergeCell ref="Y36:Y40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:N40"/>
+    <mergeCell ref="O36:O40"/>
+    <mergeCell ref="P36:P40"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A31:Q31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="A33:Q33"/>
     <mergeCell ref="W43:W44"/>
     <mergeCell ref="X43:X44"/>
     <mergeCell ref="Y43:Y44"/>
@@ -6155,104 +6377,26 @@
     <mergeCell ref="L43:L44"/>
     <mergeCell ref="M43:M44"/>
     <mergeCell ref="N43:N44"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="A31:Q31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="V36:V40"/>
-    <mergeCell ref="Y36:Y40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="J36:J40"/>
-    <mergeCell ref="L36:L40"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="N36:N40"/>
-    <mergeCell ref="O36:O40"/>
-    <mergeCell ref="P36:P40"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="R36:R40"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="U49:U52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="W49:W52"/>
-    <mergeCell ref="X49:X52"/>
-    <mergeCell ref="Y49:Y52"/>
-    <mergeCell ref="O49:O52"/>
-    <mergeCell ref="P49:P52"/>
-    <mergeCell ref="Q49:Q52"/>
-    <mergeCell ref="R49:R52"/>
-    <mergeCell ref="T49:T52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="N49:N52"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="Y63:Y64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y2" r:id="rId1" xr:uid="{B194D28D-E667-4CDB-BE58-629A6A397331}"/>
@@ -6328,9 +6472,14 @@
     <hyperlink ref="Z57" r:id="rId71" xr:uid="{493678A1-8803-4814-9FC5-09CBD60C6B96}"/>
     <hyperlink ref="Y58" r:id="rId72" xr:uid="{1FCCC806-8A1D-4DC5-8503-B0286950C7FD}"/>
     <hyperlink ref="Z58" r:id="rId73" xr:uid="{E38D867F-CFA3-499A-B16F-53D48BE4BFCD}"/>
+    <hyperlink ref="Z65" r:id="rId74" xr:uid="{9A493D31-F3E1-45A7-A10C-B12C41207E61}"/>
+    <hyperlink ref="Z63" r:id="rId75" xr:uid="{74C49F44-676F-48BA-9800-B7C92058E5B6}"/>
+    <hyperlink ref="Z64" r:id="rId76" xr:uid="{3EF8D2FD-37C0-48C5-9078-6307A638E04A}"/>
+    <hyperlink ref="Z62" r:id="rId77" xr:uid="{B7BB03A8-100C-4D39-8CE5-E6FF1756F9DD}"/>
+    <hyperlink ref="Z66" r:id="rId78" xr:uid="{47FF4741-716C-418C-9194-4F317456B58D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId79"/>
 </worksheet>
 </file>
 

--- a/gi_t_is/exps.xlsx
+++ b/gi_t_is/exps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\Kaggle\gi_t_is\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FCEB46-F30F-4A32-90C1-8AA546647185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3A43C-9981-4F20-B6B4-B3508556F354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="290">
   <si>
     <t>main net</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>https://wandb.ai/diwert/uw-maddison-gi-tract/runs/3meui9jf/overview?workspace=user-diwert</t>
-  </si>
-  <si>
-    <t>start time</t>
   </si>
   <si>
     <t>gpu</t>
@@ -1029,6 +1026,63 @@
   </si>
   <si>
     <t>https://www.kaggle.com/code/andreyzotov/union-inference?scriptVersionId=100036345</t>
+  </si>
+  <si>
+    <t>30h 30m</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-unet-b3-l0-1034-s0-9018?scriptVersionId=100183481</t>
+  </si>
+  <si>
+    <t>Average lum unet (0.9018) 0.870 + lum fpn (0.9055) 0.868</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-unet-0-870-fpn-0-868?scriptVersionId=100191207</t>
+  </si>
+  <si>
+    <t>7h 50m</t>
+  </si>
+  <si>
+    <t>324x384x11</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-unet-b4-deep-5-best-valid-l0-1344-s0-8723?scriptVersionId=100242309</t>
+  </si>
+  <si>
+    <t>experiment date</t>
+  </si>
+  <si>
+    <t>Average pub awsaf 0.86 +  lum unet (0.9018) 0.870 + lum fpn (0.9055) 0.868</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/pub-0-86-lum-unet-0-870-fpn-0-868?scriptVersionId=100193743</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-best-valid-l0-1012-s0-9055?scriptVersionId=100198345</t>
+  </si>
+  <si>
+    <t>Average (lum b3 0.868 + lum b3 0.868)</t>
+  </si>
+  <si>
+    <t>Average lum top2*fpnb3+top2*unetb3</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-fpn-0-868-fpn-0-868?scriptVersionId=100199294</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-2fpnb3-2unetb3?scriptVersionId=100239832</t>
+  </si>
+  <si>
+    <t>Average pub 0.86 + top2*lum unet+ top2*lum fpn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/pub-0-86-2lum-unet-2-lum-fpn?scriptVersionId=100242946</t>
+  </si>
+  <si>
+    <t>Average {([pub awsaf 0.86 5models 3ch ]*2 + [1d 10m (5folds*top2) 1ch]*1}/(20) + lum[4m (unet&amp;fpn) 5ch]}/2)</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/p25-5m-2-1d-10m-1-20-lum-4m-2?scriptVersionId=100250158</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1330,12 +1384,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1592,35 +1683,75 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1632,62 +1763,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1971,11 +2110,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:Q66"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75:Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1983,7 +2122,7 @@
     <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.90625" customWidth="1"/>
     <col min="7" max="7" width="8.6328125" customWidth="1"/>
@@ -2004,20 +2143,20 @@
     <col min="22" max="22" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.81640625" customWidth="1"/>
     <col min="24" max="24" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33.6328125" customWidth="1"/>
-    <col min="26" max="26" width="41.81640625" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="26" max="26" width="26.1796875" customWidth="1"/>
     <col min="27" max="28" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
@@ -2041,7 +2180,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>18</v>
@@ -2062,22 +2201,22 @@
         <v>3</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>12</v>
@@ -2086,27 +2225,27 @@
         <v>20</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>7</v>
@@ -2128,7 +2267,7 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>17</v>
@@ -2150,10 +2289,10 @@
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V2" s="13">
         <v>0.90780000000000005</v>
@@ -2165,10 +2304,10 @@
         <v>19</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA2" s="15">
         <v>0.84</v>
@@ -2180,16 +2319,16 @@
     </row>
     <row r="3" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>7</v>
@@ -2211,7 +2350,7 @@
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>17</v>
@@ -2233,10 +2372,10 @@
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V3" s="13">
         <v>0.89149999999999996</v>
@@ -2251,7 +2390,7 @@
         <v>24</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA3" s="15">
         <v>0.83799999999999997</v>
@@ -2263,16 +2402,16 @@
     </row>
     <row r="4" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>7</v>
@@ -2294,7 +2433,7 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>17</v>
@@ -2316,10 +2455,10 @@
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V4" s="13">
         <v>0.89159999999999995</v>
@@ -2331,10 +2470,10 @@
         <v>19</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA4" s="15">
         <v>0.83599999999999997</v>
@@ -2346,16 +2485,16 @@
     </row>
     <row r="5" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>7</v>
@@ -2377,7 +2516,7 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>17</v>
@@ -2399,10 +2538,10 @@
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V5" s="13">
         <v>0.90449999999999997</v>
@@ -2417,7 +2556,7 @@
         <v>23</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA5" s="15">
         <v>0.82599999999999996</v>
@@ -2429,16 +2568,16 @@
     </row>
     <row r="6" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>7</v>
@@ -2460,7 +2599,7 @@
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>17</v>
@@ -2482,10 +2621,10 @@
       </c>
       <c r="S6" s="11"/>
       <c r="T6" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V6" s="13">
         <v>0.9032</v>
@@ -2497,10 +2636,10 @@
         <v>19</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA6" s="15">
         <v>0.84199999999999997</v>
@@ -2511,42 +2650,42 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
+      <c r="A7" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
       <c r="R7" s="17">
         <v>0.45</v>
       </c>
       <c r="S7" s="80"/>
       <c r="T7" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U7" s="18"/>
       <c r="V7" s="16">
         <f>SUM(V2:V6)/5</f>
         <v>0.89971999999999996</v>
       </c>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
       <c r="Z7" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA7" s="63">
         <v>0.84599999999999997</v>
@@ -2557,42 +2696,42 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
+      <c r="A8" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
       <c r="R8" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S8" s="80"/>
       <c r="T8" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U8" s="18"/>
       <c r="V8" s="16">
         <f>(V2*V3*V4*V5*V6)^(1/5)</f>
         <v>0.8996939854163285</v>
       </c>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
       <c r="Z8" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA8" s="63">
         <v>0.82299999999999995</v>
@@ -2604,22 +2743,22 @@
     </row>
     <row r="9" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>15</v>
@@ -2635,7 +2774,7 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>17</v>
@@ -2657,10 +2796,10 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V9" s="8">
         <v>0.90149999999999997</v>
@@ -2672,10 +2811,10 @@
         <v>19</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA9" s="7">
         <v>0.84599999999999997</v>
@@ -2687,19 +2826,19 @@
     </row>
     <row r="10" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>8</v>
@@ -2718,7 +2857,7 @@
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>17</v>
@@ -2740,10 +2879,10 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V10" s="8">
         <v>0.90066999999999997</v>
@@ -2755,10 +2894,10 @@
         <v>19</v>
       </c>
       <c r="Y10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="AA10" s="7">
         <v>0.83599999999999997</v>
@@ -2770,22 +2909,22 @@
     </row>
     <row r="11" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>15</v>
@@ -2801,7 +2940,7 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>17</v>
@@ -2823,10 +2962,10 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V11" s="8">
         <v>0.89764999999999995</v>
@@ -2838,10 +2977,10 @@
         <v>19</v>
       </c>
       <c r="Y11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z11" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="AA11" s="7">
         <v>0.83699999999999997</v>
@@ -2853,16 +2992,16 @@
     </row>
     <row r="12" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>7</v>
@@ -2884,7 +3023,7 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>17</v>
@@ -2906,10 +3045,10 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V12" s="8">
         <v>0.90769880000000003</v>
@@ -2921,10 +3060,10 @@
         <v>19</v>
       </c>
       <c r="Y12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z12" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="Z12" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="AA12" s="7">
         <v>0.83899999999999997</v>
@@ -2936,22 +3075,22 @@
     </row>
     <row r="13" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>15</v>
@@ -2967,7 +3106,7 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>17</v>
@@ -2989,10 +3128,10 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V13" s="8">
         <v>0.89905900000000005</v>
@@ -3004,10 +3143,10 @@
         <v>0.9163</v>
       </c>
       <c r="Y13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z13" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="AA13" s="7">
         <v>0.80900000000000005</v>
@@ -3018,53 +3157,53 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="104" t="s">
+      <c r="D14" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="104" t="s">
+      <c r="F14" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="104">
+      <c r="H14" s="108">
         <v>2E-3</v>
       </c>
-      <c r="I14" s="104">
+      <c r="I14" s="108">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J14" s="104" t="s">
+      <c r="J14" s="108" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="65"/>
-      <c r="L14" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="104" t="s">
+      <c r="L14" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="104">
+      <c r="N14" s="108">
         <v>15</v>
       </c>
       <c r="O14" s="23">
         <v>9</v>
       </c>
-      <c r="P14" s="104">
+      <c r="P14" s="108">
         <v>128</v>
       </c>
-      <c r="Q14" s="108">
+      <c r="Q14" s="110">
         <v>4</v>
       </c>
       <c r="R14" s="23">
@@ -3072,21 +3211,21 @@
       </c>
       <c r="S14" s="78"/>
       <c r="T14" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V14" s="25">
         <v>0.9052</v>
       </c>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="106" t="s">
+      <c r="W14" s="108"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z14" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="Z14" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="AA14" s="27">
         <v>0.83499999999999996</v>
@@ -3097,43 +3236,43 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
       <c r="K15" s="66"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
       <c r="O15" s="23">
         <v>11</v>
       </c>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="111"/>
       <c r="R15" s="23">
         <v>0.4</v>
       </c>
       <c r="S15" s="78"/>
       <c r="T15" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V15" s="25">
         <v>0.90767349045852097</v>
       </c>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="109"/>
       <c r="Z15" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA15" s="27">
         <v>0.83599999999999997</v>
@@ -3144,31 +3283,31 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
+      <c r="A16" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
       <c r="R16" s="23">
         <v>0.4</v>
       </c>
       <c r="S16" s="78"/>
       <c r="T16" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U16" s="32"/>
       <c r="V16" s="25">
@@ -3179,7 +3318,7 @@
       <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA16" s="27">
         <v>0.84199999999999997</v>
@@ -3190,31 +3329,31 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="112"/>
+      <c r="A17" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="115"/>
       <c r="R17" s="19">
         <v>0.4</v>
       </c>
       <c r="S17" s="19"/>
       <c r="T17" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U17" s="19"/>
       <c r="V17" s="22"/>
@@ -3222,7 +3361,7 @@
       <c r="X17" s="22"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA17" s="21">
         <v>0.86099999999999999</v>
@@ -3233,75 +3372,75 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="104" t="s">
+      <c r="D18" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="104" t="s">
+      <c r="F18" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="104">
+      <c r="H18" s="108">
         <v>2E-3</v>
       </c>
-      <c r="I18" s="104">
+      <c r="I18" s="108">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J18" s="104" t="s">
+      <c r="J18" s="108" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="65"/>
-      <c r="L18" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="104" t="s">
+      <c r="L18" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="104">
+      <c r="N18" s="108">
         <v>15</v>
       </c>
       <c r="O18" s="23">
         <v>14</v>
       </c>
-      <c r="P18" s="104">
+      <c r="P18" s="108">
         <v>128</v>
       </c>
-      <c r="Q18" s="108">
+      <c r="Q18" s="110">
         <v>0</v>
       </c>
-      <c r="R18" s="104">
+      <c r="R18" s="108">
         <v>0.4</v>
       </c>
       <c r="S18" s="78"/>
       <c r="T18" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V18" s="25">
         <v>0.91459137778128297</v>
       </c>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="106" t="s">
+      <c r="W18" s="108"/>
+      <c r="X18" s="108"/>
+      <c r="Y18" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z18" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="Z18" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="AA18" s="27">
         <v>0.84599999999999997</v>
@@ -3312,39 +3451,39 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
       <c r="K19" s="66"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
       <c r="O19" s="23">
         <v>13</v>
       </c>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="105"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="109"/>
       <c r="S19" s="79"/>
       <c r="T19" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V19" s="25">
         <v>0.91420000000000001</v>
       </c>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="109"/>
       <c r="Z19" s="33"/>
       <c r="AA19" s="33"/>
       <c r="AB19" s="33">
@@ -3353,31 +3492,31 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
+      <c r="A20" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
       <c r="R20" s="23">
         <v>0.4</v>
       </c>
       <c r="S20" s="78"/>
       <c r="T20" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U20" s="32"/>
       <c r="V20" s="25">
@@ -3388,7 +3527,7 @@
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA20" s="27">
         <v>0.84699999999999998</v>
@@ -3399,31 +3538,31 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
+      <c r="A21" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
       <c r="R21" s="28">
         <v>0.4</v>
       </c>
       <c r="S21" s="28"/>
       <c r="T21" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U21" s="28"/>
       <c r="V21" s="29"/>
@@ -3431,7 +3570,7 @@
       <c r="X21" s="29"/>
       <c r="Y21" s="29"/>
       <c r="Z21" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA21" s="31">
         <v>0.86</v>
@@ -3439,31 +3578,31 @@
       <c r="AB21" s="31"/>
     </row>
     <row r="22" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="103"/>
+      <c r="A22" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="119"/>
       <c r="R22" s="28">
         <v>0.4</v>
       </c>
       <c r="S22" s="28"/>
       <c r="T22" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U22" s="28"/>
       <c r="V22" s="29"/>
@@ -3471,7 +3610,7 @@
       <c r="X22" s="29"/>
       <c r="Y22" s="29"/>
       <c r="Z22" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA22" s="31">
         <v>0.86199999999999999</v>
@@ -3479,31 +3618,31 @@
       <c r="AB22" s="31"/>
     </row>
     <row r="23" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
+      <c r="A23" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="119"/>
       <c r="R23" s="28">
         <v>0.4</v>
       </c>
       <c r="S23" s="28"/>
       <c r="T23" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U23" s="28"/>
       <c r="V23" s="29"/>
@@ -3511,7 +3650,7 @@
       <c r="X23" s="29"/>
       <c r="Y23" s="29"/>
       <c r="Z23" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA23" s="31">
         <v>0.86299999999999999</v>
@@ -3519,31 +3658,31 @@
       <c r="AB23" s="31"/>
     </row>
     <row r="24" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="103"/>
+      <c r="A24" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="119"/>
       <c r="R24" s="28">
         <v>0.4</v>
       </c>
       <c r="S24" s="28"/>
       <c r="T24" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U24" s="28"/>
       <c r="V24" s="29"/>
@@ -3551,7 +3690,7 @@
       <c r="X24" s="29"/>
       <c r="Y24" s="29"/>
       <c r="Z24" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA24" s="31">
         <v>0.86299999999999999</v>
@@ -3560,22 +3699,22 @@
     </row>
     <row r="25" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>104</v>
-      </c>
       <c r="D25" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>15</v>
@@ -3591,7 +3730,7 @@
       </c>
       <c r="K25" s="65"/>
       <c r="L25" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>17</v>
@@ -3612,7 +3751,7 @@
       <c r="S25" s="78"/>
       <c r="T25" s="23"/>
       <c r="U25" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V25" s="25">
         <v>0.90566981770098198</v>
@@ -3620,7 +3759,7 @@
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
       <c r="Y25" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z25" s="26"/>
       <c r="AA25" s="27"/>
@@ -3631,22 +3770,22 @@
     </row>
     <row r="26" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>107</v>
-      </c>
       <c r="D26" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>15</v>
@@ -3662,7 +3801,7 @@
       </c>
       <c r="K26" s="65"/>
       <c r="L26" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M26" s="23" t="s">
         <v>17</v>
@@ -3683,7 +3822,7 @@
       <c r="S26" s="78"/>
       <c r="T26" s="23"/>
       <c r="U26" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V26" s="25">
         <v>0.90188208435262895</v>
@@ -3691,7 +3830,7 @@
       <c r="W26" s="25"/>
       <c r="X26" s="25"/>
       <c r="Y26" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z26" s="26"/>
       <c r="AA26" s="27"/>
@@ -3702,22 +3841,22 @@
     </row>
     <row r="27" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>110</v>
-      </c>
       <c r="D27" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>15</v>
@@ -3733,7 +3872,7 @@
       </c>
       <c r="K27" s="35"/>
       <c r="L27" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M27" s="35" t="s">
         <v>17</v>
@@ -3754,7 +3893,7 @@
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V27" s="38">
         <v>0.91259754968411999</v>
@@ -3762,7 +3901,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
       <c r="Y27" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z27" s="39"/>
       <c r="AA27" s="40"/>
@@ -3772,31 +3911,31 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
+      <c r="A28" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
       <c r="R28" s="45">
         <v>0.4</v>
       </c>
       <c r="S28" s="81"/>
       <c r="T28" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U28" s="45"/>
       <c r="V28" s="46"/>
@@ -3804,7 +3943,7 @@
       <c r="X28" s="46"/>
       <c r="Y28" s="47"/>
       <c r="Z28" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA28" s="48">
         <v>0.85299999999999998</v>
@@ -3812,31 +3951,31 @@
       <c r="AB28" s="48"/>
     </row>
     <row r="29" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
+      <c r="A29" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
       <c r="R29" s="45">
         <v>0.4</v>
       </c>
       <c r="S29" s="81"/>
       <c r="T29" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U29" s="45"/>
       <c r="V29" s="46"/>
@@ -3844,7 +3983,7 @@
       <c r="X29" s="46"/>
       <c r="Y29" s="47"/>
       <c r="Z29" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA29" s="48">
         <v>0.85499999999999998</v>
@@ -3852,31 +3991,31 @@
       <c r="AB29" s="48"/>
     </row>
     <row r="30" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
+      <c r="A30" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
       <c r="R30" s="45">
         <v>0.4</v>
       </c>
       <c r="S30" s="81"/>
       <c r="T30" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U30" s="45"/>
       <c r="V30" s="46"/>
@@ -3884,7 +4023,7 @@
       <c r="X30" s="46"/>
       <c r="Y30" s="47"/>
       <c r="Z30" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA30" s="48">
         <v>0.84</v>
@@ -3892,31 +4031,31 @@
       <c r="AB30" s="48"/>
     </row>
     <row r="31" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
+      <c r="A31" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
       <c r="R31" s="45">
         <v>0.4</v>
       </c>
       <c r="S31" s="81"/>
       <c r="T31" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U31" s="45"/>
       <c r="V31" s="46"/>
@@ -3924,7 +4063,7 @@
       <c r="X31" s="46"/>
       <c r="Y31" s="47"/>
       <c r="Z31" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA31" s="48">
         <v>0.86199999999999999</v>
@@ -3932,31 +4071,31 @@
       <c r="AB31" s="48"/>
     </row>
     <row r="32" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
+      <c r="A32" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
       <c r="R32" s="45">
         <v>0.4</v>
       </c>
       <c r="S32" s="81"/>
       <c r="T32" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U32" s="45"/>
       <c r="V32" s="46"/>
@@ -3964,7 +4103,7 @@
       <c r="X32" s="46"/>
       <c r="Y32" s="47"/>
       <c r="Z32" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA32" s="48">
         <v>0.86299999999999999</v>
@@ -3972,31 +4111,31 @@
       <c r="AB32" s="48"/>
     </row>
     <row r="33" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
+      <c r="A33" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
       <c r="R33" s="45">
         <v>0.4</v>
       </c>
       <c r="S33" s="81"/>
       <c r="T33" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U33" s="45"/>
       <c r="V33" s="46"/>
@@ -4004,39 +4143,39 @@
       <c r="X33" s="46"/>
       <c r="Y33" s="47"/>
       <c r="Z33" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA33" s="50">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AB33" s="49"/>
+    </row>
+    <row r="34" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="AA33" s="49">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="AB33" s="49"/>
-    </row>
-    <row r="34" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
       <c r="R34" s="45">
         <v>0.4</v>
       </c>
       <c r="S34" s="81"/>
       <c r="T34" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U34" s="45"/>
       <c r="V34" s="46"/>
@@ -4044,7 +4183,7 @@
       <c r="X34" s="46"/>
       <c r="Y34" s="47"/>
       <c r="Z34" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA34" s="50">
         <v>0.86299999999999999</v>
@@ -4052,31 +4191,31 @@
       <c r="AB34" s="50"/>
     </row>
     <row r="35" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
+      <c r="A35" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
       <c r="R35" s="45">
         <v>0.4</v>
       </c>
       <c r="S35" s="81"/>
       <c r="T35" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U35" s="45"/>
       <c r="V35" s="46"/>
@@ -4084,83 +4223,83 @@
       <c r="X35" s="46"/>
       <c r="Y35" s="47"/>
       <c r="Z35" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA35" s="49">
+        <v>149</v>
+      </c>
+      <c r="AA35" s="50">
         <v>0.86399999999999999</v>
       </c>
       <c r="AB35" s="49"/>
     </row>
     <row r="36" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="97" t="s">
+      <c r="D36" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="97" t="s">
+      <c r="F36" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="97">
+      <c r="H36" s="100">
         <v>2E-3</v>
       </c>
-      <c r="I36" s="97">
+      <c r="I36" s="100">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J36" s="97" t="s">
+      <c r="J36" s="100" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="64"/>
-      <c r="L36" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="M36" s="97" t="s">
+      <c r="L36" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="97">
+      <c r="N36" s="100">
         <v>15</v>
       </c>
-      <c r="O36" s="97">
+      <c r="O36" s="100">
         <v>13</v>
       </c>
-      <c r="P36" s="97">
+      <c r="P36" s="100">
         <v>64</v>
       </c>
-      <c r="Q36" s="97">
+      <c r="Q36" s="100">
         <v>0</v>
       </c>
-      <c r="R36" s="97">
+      <c r="R36" s="100">
         <v>0.4</v>
       </c>
       <c r="S36" s="77"/>
       <c r="T36" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="U36" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="V36" s="114">
+        <v>117</v>
+      </c>
+      <c r="U36" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="V36" s="103">
         <v>0.91606262570521801</v>
       </c>
       <c r="W36" s="42"/>
       <c r="X36" s="42"/>
-      <c r="Y36" s="117" t="s">
+      <c r="Y36" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z36" s="44" t="s">
         <v>115</v>
-      </c>
-      <c r="Z36" s="44" t="s">
-        <v>116</v>
       </c>
       <c r="AA36" s="43">
         <v>0.85299999999999998</v>
@@ -4171,35 +4310,35 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="96"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
       <c r="K37" s="77"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
       <c r="S37" s="77"/>
       <c r="T37" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="U37" s="99"/>
-      <c r="V37" s="115"/>
+        <v>119</v>
+      </c>
+      <c r="U37" s="122"/>
+      <c r="V37" s="104"/>
       <c r="W37" s="42"/>
       <c r="X37" s="42"/>
-      <c r="Y37" s="96"/>
+      <c r="Y37" s="93"/>
       <c r="Z37" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA37" s="43">
         <v>0.85299999999999998</v>
@@ -4210,35 +4349,35 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="96"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
       <c r="K38" s="77"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
       <c r="S38" s="77"/>
       <c r="T38" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="U38" s="99"/>
-      <c r="V38" s="115"/>
+        <v>120</v>
+      </c>
+      <c r="U38" s="122"/>
+      <c r="V38" s="104"/>
       <c r="W38" s="42"/>
       <c r="X38" s="42"/>
-      <c r="Y38" s="96"/>
+      <c r="Y38" s="93"/>
       <c r="Z38" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA38" s="43">
         <v>0.84299999999999997</v>
@@ -4249,35 +4388,35 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
       <c r="K39" s="77"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
       <c r="S39" s="77"/>
       <c r="T39" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="U39" s="99"/>
-      <c r="V39" s="116"/>
+        <v>121</v>
+      </c>
+      <c r="U39" s="122"/>
+      <c r="V39" s="105"/>
       <c r="W39" s="42"/>
       <c r="X39" s="42"/>
-      <c r="Y39" s="93"/>
+      <c r="Y39" s="101"/>
       <c r="Z39" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA39" s="43">
         <v>0.85099999999999998</v>
@@ -4288,35 +4427,35 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
       <c r="K40" s="77"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
       <c r="S40" s="77"/>
       <c r="T40" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="U40" s="100"/>
-      <c r="V40" s="116"/>
+        <v>124</v>
+      </c>
+      <c r="U40" s="123"/>
+      <c r="V40" s="105"/>
       <c r="W40" s="42"/>
       <c r="X40" s="42"/>
-      <c r="Y40" s="93"/>
+      <c r="Y40" s="101"/>
       <c r="Z40" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA40" s="43">
         <v>0.85099999999999998</v>
@@ -4328,22 +4467,22 @@
     </row>
     <row r="41" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>152</v>
-      </c>
       <c r="D41" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G41" s="51" t="s">
         <v>15</v>
@@ -4359,7 +4498,7 @@
       </c>
       <c r="K41" s="51"/>
       <c r="L41" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M41" s="51" t="s">
         <v>17</v>
@@ -4381,21 +4520,21 @@
       </c>
       <c r="S41" s="51"/>
       <c r="T41" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U41" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="V41" s="53" t="s">
         <v>154</v>
-      </c>
-      <c r="V41" s="53" t="s">
-        <v>155</v>
       </c>
       <c r="W41" s="53"/>
       <c r="X41" s="53"/>
       <c r="Y41" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z41" s="54" t="s">
         <v>156</v>
-      </c>
-      <c r="Z41" s="54" t="s">
-        <v>157</v>
       </c>
       <c r="AA41" s="55">
         <v>0.83799999999999997</v>
@@ -4407,22 +4546,22 @@
     </row>
     <row r="42" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="57" t="s">
+      <c r="D42" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="57" t="s">
-        <v>160</v>
-      </c>
       <c r="F42" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="57" t="s">
         <v>15</v>
@@ -4438,7 +4577,7 @@
       </c>
       <c r="K42" s="57"/>
       <c r="L42" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M42" s="57" t="s">
         <v>17</v>
@@ -4460,21 +4599,21 @@
       </c>
       <c r="S42" s="57"/>
       <c r="T42" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U42" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V42" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W42" s="60"/>
       <c r="X42" s="60"/>
       <c r="Y42" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z42" s="61" t="s">
         <v>162</v>
-      </c>
-      <c r="Z42" s="61" t="s">
-        <v>163</v>
       </c>
       <c r="AA42" s="62">
         <v>0.82</v>
@@ -4485,75 +4624,75 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="92" t="s">
+      <c r="D43" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="E43" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="F43" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="92" t="s">
+      <c r="F43" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="92">
+      <c r="H43" s="102">
         <v>2E-3</v>
       </c>
-      <c r="I43" s="92">
+      <c r="I43" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J43" s="92" t="s">
+      <c r="J43" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="118"/>
-      <c r="L43" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="M43" s="92" t="s">
+      <c r="K43" s="98"/>
+      <c r="L43" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="M43" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="N43" s="92">
+      <c r="N43" s="102">
         <v>18</v>
       </c>
-      <c r="O43" s="92">
+      <c r="O43" s="102">
         <v>16</v>
       </c>
-      <c r="P43" s="92">
+      <c r="P43" s="102">
         <v>64</v>
       </c>
-      <c r="Q43" s="92">
+      <c r="Q43" s="102">
         <v>0</v>
       </c>
-      <c r="R43" s="92">
+      <c r="R43" s="102">
         <v>0.4</v>
       </c>
       <c r="S43" s="82"/>
-      <c r="T43" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="U43" s="92" t="s">
-        <v>154</v>
+      <c r="T43" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="U43" s="102" t="s">
+        <v>153</v>
       </c>
       <c r="V43" s="69">
         <v>0.910999237559735</v>
       </c>
-      <c r="W43" s="92"/>
-      <c r="X43" s="92"/>
-      <c r="Y43" s="94" t="s">
+      <c r="W43" s="102"/>
+      <c r="X43" s="102"/>
+      <c r="Y43" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z43" s="67" t="s">
         <v>168</v>
-      </c>
-      <c r="Z43" s="67" t="s">
-        <v>169</v>
       </c>
       <c r="AA43" s="68">
         <v>0.84599999999999997</v>
@@ -4564,35 +4703,35 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="93"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="93"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
+      <c r="R44" s="101"/>
       <c r="S44" s="82"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
+      <c r="T44" s="101"/>
+      <c r="U44" s="101"/>
       <c r="V44" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="W44" s="101"/>
+      <c r="X44" s="101"/>
+      <c r="Y44" s="101"/>
+      <c r="Z44" s="67" t="s">
         <v>170</v>
-      </c>
-      <c r="W44" s="93"/>
-      <c r="X44" s="93"/>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="67" t="s">
-        <v>171</v>
       </c>
       <c r="AA44" s="68">
         <v>0.84799999999999998</v>
@@ -4604,22 +4743,22 @@
     </row>
     <row r="45" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="71" t="s">
-        <v>173</v>
-      </c>
       <c r="D45" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="71" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G45" s="71" t="s">
         <v>15</v>
@@ -4634,10 +4773,10 @@
         <v>16</v>
       </c>
       <c r="K45" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L45" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M45" s="71" t="s">
         <v>17</v>
@@ -4659,10 +4798,10 @@
       </c>
       <c r="S45" s="71"/>
       <c r="T45" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U45" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V45" s="73">
         <v>0.89312979999999997</v>
@@ -4674,10 +4813,10 @@
         <v>19</v>
       </c>
       <c r="Y45" s="74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z45" s="74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA45" s="75">
         <v>0.83399999999999996</v>
@@ -4689,22 +4828,22 @@
     </row>
     <row r="46" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="71" t="s">
-        <v>179</v>
-      </c>
       <c r="D46" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="71" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G46" s="71" t="s">
         <v>15</v>
@@ -4716,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K46" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L46" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M46" s="71" t="s">
         <v>17</v>
@@ -4744,10 +4883,10 @@
       </c>
       <c r="S46" s="71"/>
       <c r="T46" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U46" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V46" s="73">
         <v>0.89780219999999999</v>
@@ -4759,10 +4898,10 @@
         <v>19</v>
       </c>
       <c r="Y46" s="74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z46" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA46" s="75">
         <v>0.84399999999999997</v>
@@ -4774,22 +4913,22 @@
     </row>
     <row r="47" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="71" t="s">
-        <v>189</v>
-      </c>
       <c r="D47" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E47" s="71" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="71" t="s">
         <v>15</v>
@@ -4801,16 +4940,16 @@
         <v>0</v>
       </c>
       <c r="J47" s="71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K47" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L47" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M47" s="71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N47" s="71">
         <v>30</v>
@@ -4829,10 +4968,10 @@
       </c>
       <c r="S47" s="71"/>
       <c r="T47" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U47" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V47" s="73">
         <v>0.88856286369264104</v>
@@ -4844,10 +4983,10 @@
         <v>19</v>
       </c>
       <c r="Y47" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z47" s="74" t="s">
         <v>192</v>
-      </c>
-      <c r="Z47" s="74" t="s">
-        <v>193</v>
       </c>
       <c r="AA47" s="75">
         <v>0.83699999999999997</v>
@@ -4859,22 +4998,22 @@
     </row>
     <row r="48" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="71" t="s">
-        <v>195</v>
-      </c>
       <c r="D48" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E48" s="71" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G48" s="71" t="s">
         <v>15</v>
@@ -4886,16 +5025,16 @@
         <v>0</v>
       </c>
       <c r="J48" s="71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K48" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L48" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M48" s="71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N48" s="71">
         <v>30</v>
@@ -4914,10 +5053,10 @@
       </c>
       <c r="S48" s="71"/>
       <c r="T48" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U48" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V48" s="73">
         <v>0.89106455631554105</v>
@@ -4929,10 +5068,10 @@
         <v>19</v>
       </c>
       <c r="Y48" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z48" s="74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA48" s="75">
         <v>0.83499999999999996</v>
@@ -4943,83 +5082,83 @@
       </c>
     </row>
     <row r="49" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="120" t="s">
+      <c r="A49" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="120" t="s">
+      <c r="D49" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" s="120" t="s">
+      <c r="F49" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="120">
+      <c r="H49" s="94">
         <v>2E-3</v>
       </c>
-      <c r="I49" s="120">
+      <c r="I49" s="94">
         <v>0</v>
       </c>
-      <c r="J49" s="120" t="s">
-        <v>180</v>
-      </c>
-      <c r="K49" s="120" t="s">
+      <c r="J49" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="K49" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="L49" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="M49" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="N49" s="94">
+        <v>30</v>
+      </c>
+      <c r="O49" s="94">
+        <v>30</v>
+      </c>
+      <c r="P49" s="94">
+        <v>128</v>
+      </c>
+      <c r="Q49" s="94">
+        <v>0</v>
+      </c>
+      <c r="R49" s="94">
+        <v>0.4</v>
+      </c>
+      <c r="S49" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="T49" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="U49" s="94" t="s">
         <v>175</v>
-      </c>
-      <c r="L49" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="M49" s="120" t="s">
-        <v>197</v>
-      </c>
-      <c r="N49" s="120">
-        <v>30</v>
-      </c>
-      <c r="O49" s="120">
-        <v>30</v>
-      </c>
-      <c r="P49" s="120">
-        <v>128</v>
-      </c>
-      <c r="Q49" s="120">
-        <v>0</v>
-      </c>
-      <c r="R49" s="120">
-        <v>0.4</v>
-      </c>
-      <c r="S49" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="T49" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="U49" s="120" t="s">
-        <v>176</v>
       </c>
       <c r="V49" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W49" s="120" t="s">
+      <c r="W49" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="X49" s="120" t="s">
+      <c r="X49" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="Y49" s="122" t="s">
+      <c r="Y49" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z49" s="74" t="s">
         <v>202</v>
-      </c>
-      <c r="Z49" s="74" t="s">
-        <v>203</v>
       </c>
       <c r="AA49" s="75">
         <v>0.83499999999999996</v>
@@ -5030,37 +5169,37 @@
       </c>
     </row>
     <row r="50" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="121"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="121"/>
-      <c r="K50" s="121"/>
-      <c r="L50" s="121"/>
-      <c r="M50" s="121"/>
-      <c r="N50" s="121"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="121"/>
-      <c r="Q50" s="121"/>
-      <c r="R50" s="121"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="95"/>
       <c r="S50" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="T50" s="121"/>
-      <c r="U50" s="121"/>
+        <v>212</v>
+      </c>
+      <c r="T50" s="95"/>
+      <c r="U50" s="95"/>
       <c r="V50" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W50" s="121"/>
-      <c r="X50" s="121"/>
-      <c r="Y50" s="121"/>
+      <c r="W50" s="95"/>
+      <c r="X50" s="95"/>
+      <c r="Y50" s="95"/>
       <c r="Z50" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA50" s="75">
         <v>0.81200000000000006</v>
@@ -5071,37 +5210,37 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="121"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="121"/>
-      <c r="K51" s="121"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="121"/>
-      <c r="N51" s="121"/>
-      <c r="O51" s="121"/>
-      <c r="P51" s="121"/>
-      <c r="Q51" s="121"/>
-      <c r="R51" s="121"/>
+      <c r="A51" s="95"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
       <c r="S51" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="T51" s="121"/>
-      <c r="U51" s="121"/>
+        <v>213</v>
+      </c>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
       <c r="V51" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W51" s="121"/>
-      <c r="X51" s="121"/>
-      <c r="Y51" s="121"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="95"/>
       <c r="Z51" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA51" s="75">
         <v>0.82899999999999996</v>
@@ -5112,37 +5251,37 @@
       </c>
     </row>
     <row r="52" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="91"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="91"/>
-      <c r="L52" s="91"/>
-      <c r="M52" s="91"/>
-      <c r="N52" s="91"/>
-      <c r="O52" s="91"/>
-      <c r="P52" s="91"/>
-      <c r="Q52" s="91"/>
-      <c r="R52" s="91"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
       <c r="S52" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="T52" s="91"/>
-      <c r="U52" s="91"/>
+        <v>214</v>
+      </c>
+      <c r="T52" s="96"/>
+      <c r="U52" s="96"/>
       <c r="V52" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W52" s="91"/>
-      <c r="X52" s="91"/>
-      <c r="Y52" s="91"/>
+      <c r="W52" s="96"/>
+      <c r="X52" s="96"/>
+      <c r="Y52" s="96"/>
       <c r="Z52" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA52" s="75">
         <v>0.83499999999999996</v>
@@ -5154,22 +5293,22 @@
     </row>
     <row r="53" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="71" t="s">
-        <v>205</v>
-      </c>
       <c r="D53" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53" s="71" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G53" s="71" t="s">
         <v>15</v>
@@ -5181,16 +5320,16 @@
         <v>0</v>
       </c>
       <c r="J53" s="71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K53" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L53" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M53" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N53" s="71">
         <v>35</v>
@@ -5209,10 +5348,10 @@
       </c>
       <c r="S53" s="71"/>
       <c r="T53" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U53" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V53" s="73">
         <v>0.89568846486508802</v>
@@ -5224,7 +5363,7 @@
         <v>19</v>
       </c>
       <c r="Y53" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z53" s="74"/>
       <c r="AA53" s="75"/>
@@ -5235,22 +5374,22 @@
     </row>
     <row r="54" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="B54" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="71" t="s">
-        <v>208</v>
-      </c>
       <c r="D54" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" s="71" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G54" s="71" t="s">
         <v>15</v>
@@ -5265,13 +5404,13 @@
         <v>16</v>
       </c>
       <c r="K54" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L54" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M54" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N54" s="71">
         <v>35</v>
@@ -5290,10 +5429,10 @@
       </c>
       <c r="S54" s="71"/>
       <c r="T54" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U54" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V54" s="73">
         <v>0.89881786145269804</v>
@@ -5305,10 +5444,10 @@
         <v>19</v>
       </c>
       <c r="Y54" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z54" s="74" t="s">
         <v>210</v>
-      </c>
-      <c r="Z54" s="74" t="s">
-        <v>211</v>
       </c>
       <c r="AA54" s="75">
         <v>0.83799999999999997</v>
@@ -5320,22 +5459,22 @@
     </row>
     <row r="55" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D55" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="71" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G55" s="71" t="s">
         <v>15</v>
@@ -5350,13 +5489,13 @@
         <v>16</v>
       </c>
       <c r="K55" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L55" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M55" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N55" s="71">
         <v>35</v>
@@ -5375,10 +5514,10 @@
       </c>
       <c r="S55" s="71"/>
       <c r="T55" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U55" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V55" s="73">
         <v>0.90400000000000003</v>
@@ -5390,10 +5529,10 @@
         <v>19</v>
       </c>
       <c r="Y55" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z55" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AA55" s="75">
         <v>0.84699999999999998</v>
@@ -5406,22 +5545,22 @@
     </row>
     <row r="56" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="71" t="s">
-        <v>229</v>
-      </c>
       <c r="D56" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="71" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G56" s="71" t="s">
         <v>15</v>
@@ -5436,13 +5575,13 @@
         <v>16</v>
       </c>
       <c r="K56" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L56" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M56" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N56" s="71">
         <v>35</v>
@@ -5461,10 +5600,10 @@
       </c>
       <c r="S56" s="71"/>
       <c r="T56" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U56" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V56" s="73">
         <v>0.90449999999999997</v>
@@ -5476,10 +5615,10 @@
         <v>19</v>
       </c>
       <c r="Y56" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z56" s="74" t="s">
         <v>231</v>
-      </c>
-      <c r="Z56" s="74" t="s">
-        <v>232</v>
       </c>
       <c r="AA56" s="75">
         <v>0.84399999999999997</v>
@@ -5491,22 +5630,22 @@
     </row>
     <row r="57" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="B57" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="71" t="s">
-        <v>234</v>
-      </c>
       <c r="D57" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="71" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G57" s="71" t="s">
         <v>15</v>
@@ -5521,13 +5660,13 @@
         <v>16</v>
       </c>
       <c r="K57" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L57" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M57" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N57" s="71">
         <v>35</v>
@@ -5546,10 +5685,10 @@
       </c>
       <c r="S57" s="71"/>
       <c r="T57" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U57" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V57" s="73">
         <v>0.90079817362129599</v>
@@ -5561,10 +5700,10 @@
         <v>19</v>
       </c>
       <c r="Y57" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z57" s="74" t="s">
         <v>236</v>
-      </c>
-      <c r="Z57" s="74" t="s">
-        <v>237</v>
       </c>
       <c r="AA57" s="75">
         <v>0.84399999999999997</v>
@@ -5576,22 +5715,22 @@
     </row>
     <row r="58" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="B58" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" s="85" t="s">
-        <v>239</v>
-      </c>
       <c r="D58" s="85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E58" s="85" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G58" s="85" t="s">
         <v>15</v>
@@ -5606,13 +5745,13 @@
         <v>16</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M58" s="85" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N58" s="85">
         <v>40</v>
@@ -5631,10 +5770,10 @@
       </c>
       <c r="S58" s="85"/>
       <c r="T58" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U58" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V58" s="25">
         <v>0.91191618179711698</v>
@@ -5646,10 +5785,10 @@
         <v>19</v>
       </c>
       <c r="Y58" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z58" s="86" t="s">
         <v>242</v>
-      </c>
-      <c r="Z58" s="86" t="s">
-        <v>243</v>
       </c>
       <c r="AA58" s="48">
         <v>0.84399999999999997</v>
@@ -5664,19 +5803,19 @@
         <v>44735</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>15</v>
@@ -5686,16 +5825,16 @@
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L59" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M59" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="N59" s="4">
         <v>1</v>
@@ -5712,10 +5851,10 @@
       </c>
       <c r="S59" s="4"/>
       <c r="T59" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V59" s="8">
         <v>0.79569999999999996</v>
@@ -5726,11 +5865,11 @@
       <c r="X59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y59" s="123" t="s">
+      <c r="Y59" s="91" t="s">
         <v>19</v>
       </c>
       <c r="Z59" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA59" s="43">
         <v>0.82099999999999995</v>
@@ -5745,19 +5884,19 @@
         <v>44735</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>15</v>
@@ -5767,16 +5906,16 @@
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L60" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M60" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="N60" s="4">
         <v>10</v>
@@ -5793,9 +5932,11 @@
       </c>
       <c r="S60" s="4"/>
       <c r="T60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="U60" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="V60" s="8">
         <v>0.8256</v>
       </c>
@@ -5805,11 +5946,11 @@
       <c r="X60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y60" s="123" t="s">
+      <c r="Y60" s="91" t="s">
         <v>19</v>
       </c>
       <c r="Z60" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA60" s="43">
         <v>0.83899999999999997</v>
@@ -5824,19 +5965,19 @@
         <v>44735</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>15</v>
@@ -5846,16 +5987,16 @@
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L61" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M61" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="N61" s="4">
         <v>10</v>
@@ -5872,9 +6013,11 @@
       </c>
       <c r="S61" s="4"/>
       <c r="T61" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="U61" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="V61" s="8">
         <v>0.85270000000000001</v>
       </c>
@@ -5884,11 +6027,11 @@
       <c r="X61" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y61" s="123" t="s">
+      <c r="Y61" s="91" t="s">
         <v>19</v>
       </c>
       <c r="Z61" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA61" s="43">
         <v>0.85499999999999998</v>
@@ -5903,19 +6046,19 @@
         <v>44735</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>15</v>
@@ -5925,16 +6068,16 @@
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L62" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="N62" s="4">
         <v>10</v>
@@ -5951,9 +6094,11 @@
       </c>
       <c r="S62" s="4"/>
       <c r="T62" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="U62" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="V62" s="8">
         <v>0.87419999999999998</v>
       </c>
@@ -5963,11 +6108,11 @@
       <c r="X62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y62" s="123" t="s">
+      <c r="Y62" s="91" t="s">
         <v>19</v>
       </c>
       <c r="Z62" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA62" s="43">
         <v>0.85899999999999999</v>
@@ -5981,47 +6126,47 @@
       <c r="A63" s="88">
         <v>44735</v>
       </c>
-      <c r="B63" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="D63" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="E63" s="90" t="s">
+      <c r="B63" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" s="124" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63" s="124" t="s">
         <v>246</v>
       </c>
-      <c r="F63" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="G63" s="90" t="s">
+      <c r="G63" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="90">
+      <c r="H63" s="124">
         <v>1E-3</v>
       </c>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90" t="s">
-        <v>259</v>
-      </c>
-      <c r="K63" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="L63" s="90" t="s">
+      <c r="I63" s="124"/>
+      <c r="J63" s="124" t="s">
+        <v>258</v>
+      </c>
+      <c r="K63" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="L63" s="124" t="s">
+        <v>249</v>
+      </c>
+      <c r="M63" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="M63" s="90" t="s">
-        <v>251</v>
-      </c>
-      <c r="N63" s="90">
+      <c r="N63" s="124">
         <v>29</v>
       </c>
-      <c r="O63" s="90">
+      <c r="O63" s="124">
         <v>29</v>
       </c>
-      <c r="P63" s="90">
+      <c r="P63" s="124">
         <v>32</v>
       </c>
       <c r="Q63" s="4"/>
@@ -6029,24 +6174,26 @@
         <v>0.5</v>
       </c>
       <c r="S63" s="4"/>
-      <c r="T63" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="U63" s="4"/>
-      <c r="V63" s="90">
+      <c r="T63" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V63" s="124">
         <v>0.89729999999999999</v>
       </c>
-      <c r="W63" s="90" t="s">
+      <c r="W63" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="X63" s="90" t="s">
+      <c r="X63" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Y63" s="124" t="s">
+      <c r="Y63" s="125" t="s">
         <v>19</v>
       </c>
       <c r="Z63" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA63" s="43">
         <v>0.86299999999999999</v>
@@ -6058,34 +6205,36 @@
     </row>
     <row r="64" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="88"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="91"/>
-      <c r="E64" s="91"/>
-      <c r="F64" s="91"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="91"/>
-      <c r="I64" s="91"/>
-      <c r="J64" s="91"/>
-      <c r="K64" s="91"/>
-      <c r="L64" s="91"/>
-      <c r="M64" s="91"/>
-      <c r="N64" s="91"/>
-      <c r="O64" s="91"/>
-      <c r="P64" s="91"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="96"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="96"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4">
         <v>0.4</v>
       </c>
       <c r="S64" s="4"/>
-      <c r="T64" s="91"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="91"/>
-      <c r="W64" s="91"/>
-      <c r="X64" s="91"/>
-      <c r="Y64" s="125"/>
+      <c r="T64" s="96"/>
+      <c r="U64" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V64" s="96"/>
+      <c r="W64" s="96"/>
+      <c r="X64" s="96"/>
+      <c r="Y64" s="126"/>
       <c r="Z64" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA64" s="43">
         <v>0.86399999999999999</v>
@@ -6100,19 +6249,19 @@
         <v>44736</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>15</v>
@@ -6122,22 +6271,22 @@
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L65" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M65" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="N65" s="4">
         <v>57</v>
       </c>
       <c r="O65" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P65" s="4">
         <v>32</v>
@@ -6148,9 +6297,11 @@
       </c>
       <c r="S65" s="4"/>
       <c r="T65" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="U65" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="V65" s="8">
         <v>0.90549999999999997</v>
       </c>
@@ -6160,11 +6311,11 @@
       <c r="X65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y65" s="123" t="s">
+      <c r="Y65" s="91" t="s">
         <v>19</v>
       </c>
       <c r="Z65" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA65" s="43">
         <v>0.86799999999999999</v>
@@ -6175,25 +6326,27 @@
       </c>
     </row>
     <row r="66" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="95" t="s">
-        <v>268</v>
-      </c>
-      <c r="B66" s="96"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="96"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="96"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="96"/>
-      <c r="O66" s="96"/>
-      <c r="P66" s="96"/>
-      <c r="Q66" s="96"/>
+      <c r="A66" s="137">
+        <v>44747</v>
+      </c>
+      <c r="B66" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="139"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="139"/>
+      <c r="F66" s="139"/>
+      <c r="G66" s="139"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="139"/>
+      <c r="J66" s="139"/>
+      <c r="K66" s="139"/>
+      <c r="L66" s="139"/>
+      <c r="M66" s="139"/>
+      <c r="N66" s="139"/>
+      <c r="O66" s="139"/>
+      <c r="P66" s="139"/>
+      <c r="Q66" s="140"/>
       <c r="R66" s="89">
         <v>0.4</v>
       </c>
@@ -6205,33 +6358,35 @@
       <c r="X66" s="46"/>
       <c r="Y66" s="47"/>
       <c r="Z66" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA66" s="50">
+        <v>0.874</v>
+      </c>
+      <c r="AB66" s="49"/>
+    </row>
+    <row r="67" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="137">
+        <v>44747</v>
+      </c>
+      <c r="B67" s="138" t="s">
         <v>269</v>
       </c>
-      <c r="AA66" s="49">
-        <v>0.874</v>
-      </c>
-      <c r="AB66" s="49"/>
-    </row>
-    <row r="67" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="95" t="s">
-        <v>270</v>
-      </c>
-      <c r="B67" s="96"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="96"/>
-      <c r="K67" s="96"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="96"/>
-      <c r="O67" s="96"/>
-      <c r="P67" s="96"/>
-      <c r="Q67" s="96"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="139"/>
+      <c r="F67" s="139"/>
+      <c r="G67" s="139"/>
+      <c r="H67" s="139"/>
+      <c r="I67" s="139"/>
+      <c r="J67" s="139"/>
+      <c r="K67" s="139"/>
+      <c r="L67" s="139"/>
+      <c r="M67" s="139"/>
+      <c r="N67" s="139"/>
+      <c r="O67" s="139"/>
+      <c r="P67" s="139"/>
+      <c r="Q67" s="140"/>
       <c r="R67" s="89">
         <v>0.4</v>
       </c>
@@ -6243,116 +6398,513 @@
       <c r="X67" s="46"/>
       <c r="Y67" s="47"/>
       <c r="Z67" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA67" s="50">
+        <v>0.873</v>
+      </c>
+      <c r="AB67" s="49"/>
+    </row>
+    <row r="68" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="127">
+        <v>44737</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="AA67" s="49">
+      <c r="D68" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="128">
+        <v>1E-3</v>
+      </c>
+      <c r="I68" s="128">
+        <v>3.3800000000000002E-5</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L68" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="N68" s="19">
+        <v>90</v>
+      </c>
+      <c r="O68" s="19">
+        <v>89</v>
+      </c>
+      <c r="P68" s="19">
+        <v>32</v>
+      </c>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="V68" s="129">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="130"/>
+      <c r="Z68" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA68" s="131">
+        <v>0.87</v>
+      </c>
+      <c r="AB68" s="21">
+        <f>V68-AA68</f>
+        <v>3.180000000000005E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="137">
+        <v>44748</v>
+      </c>
+      <c r="B69" s="138" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="139"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="139"/>
+      <c r="G69" s="139"/>
+      <c r="H69" s="139"/>
+      <c r="I69" s="139"/>
+      <c r="J69" s="139"/>
+      <c r="K69" s="139"/>
+      <c r="L69" s="139"/>
+      <c r="M69" s="139"/>
+      <c r="N69" s="139"/>
+      <c r="O69" s="139"/>
+      <c r="P69" s="139"/>
+      <c r="Q69" s="140"/>
+      <c r="R69" s="90">
+        <v>0.4</v>
+      </c>
+      <c r="S69" s="90"/>
+      <c r="T69" s="90"/>
+      <c r="U69" s="90"/>
+      <c r="V69" s="46">
+        <f>(0.9018+0.9055)/2</f>
+        <v>0.90365000000000006</v>
+      </c>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="47"/>
+      <c r="Z69" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA69" s="50">
         <v>0.873</v>
       </c>
-      <c r="AB67" s="49"/>
+      <c r="AB69" s="50">
+        <f>V69-AA69</f>
+        <v>3.0650000000000066E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="137">
+        <v>44748</v>
+      </c>
+      <c r="B70" s="138" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" s="139"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="139"/>
+      <c r="G70" s="139"/>
+      <c r="H70" s="139"/>
+      <c r="I70" s="139"/>
+      <c r="J70" s="139"/>
+      <c r="K70" s="139"/>
+      <c r="L70" s="139"/>
+      <c r="M70" s="139"/>
+      <c r="N70" s="139"/>
+      <c r="O70" s="139"/>
+      <c r="P70" s="139"/>
+      <c r="Q70" s="140"/>
+      <c r="R70" s="90"/>
+      <c r="S70" s="90"/>
+      <c r="T70" s="90"/>
+      <c r="U70" s="90"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="46"/>
+      <c r="Y70" s="47"/>
+      <c r="Z70" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA70" s="141">
+        <v>0.876</v>
+      </c>
+      <c r="AB70" s="49"/>
+    </row>
+    <row r="71" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="136">
+        <v>44748</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="132">
+        <v>1E-3</v>
+      </c>
+      <c r="I71" s="132">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="L71" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M71" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="N71" s="28">
+        <v>20</v>
+      </c>
+      <c r="O71" s="28">
+        <v>19</v>
+      </c>
+      <c r="P71" s="28">
+        <v>32</v>
+      </c>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="S71" s="28"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="V71" s="133">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="134"/>
+      <c r="Z71" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA71" s="135">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="AB71" s="31">
+        <f>V71-AA71</f>
+        <v>1.3299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="88">
+        <v>44736</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="N72" s="4">
+        <v>57</v>
+      </c>
+      <c r="O72" s="4">
+        <v>57</v>
+      </c>
+      <c r="P72" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V72" s="8">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="W72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y72" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z72" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA72" s="43">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="AB72" s="7">
+        <f>V72-AA72</f>
+        <v>3.7499999999999978E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="137">
+        <v>44748</v>
+      </c>
+      <c r="B73" s="138" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" s="139"/>
+      <c r="D73" s="139"/>
+      <c r="E73" s="139"/>
+      <c r="F73" s="139"/>
+      <c r="G73" s="139"/>
+      <c r="H73" s="139"/>
+      <c r="I73" s="139"/>
+      <c r="J73" s="139"/>
+      <c r="K73" s="139"/>
+      <c r="L73" s="139"/>
+      <c r="M73" s="139"/>
+      <c r="N73" s="139"/>
+      <c r="O73" s="139"/>
+      <c r="P73" s="139"/>
+      <c r="Q73" s="140"/>
+      <c r="R73" s="90">
+        <v>0.4</v>
+      </c>
+      <c r="S73" s="90"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="46"/>
+      <c r="Y73" s="47"/>
+      <c r="Z73" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA73" s="50">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="AB73" s="50"/>
+    </row>
+    <row r="74" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="137">
+        <v>44749</v>
+      </c>
+      <c r="B74" s="138" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="139"/>
+      <c r="D74" s="139"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="139"/>
+      <c r="G74" s="139"/>
+      <c r="H74" s="139"/>
+      <c r="I74" s="139"/>
+      <c r="J74" s="139"/>
+      <c r="K74" s="139"/>
+      <c r="L74" s="139"/>
+      <c r="M74" s="139"/>
+      <c r="N74" s="139"/>
+      <c r="O74" s="139"/>
+      <c r="P74" s="139"/>
+      <c r="Q74" s="140"/>
+      <c r="R74" s="90">
+        <v>0.4</v>
+      </c>
+      <c r="S74" s="90"/>
+      <c r="T74" s="90"/>
+      <c r="U74" s="90"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="46"/>
+      <c r="X74" s="46"/>
+      <c r="Y74" s="47"/>
+      <c r="Z74" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA74" s="50">
+        <v>0.873</v>
+      </c>
+      <c r="AB74" s="50"/>
+    </row>
+    <row r="75" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="137">
+        <v>44749</v>
+      </c>
+      <c r="B75" s="138" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" s="139"/>
+      <c r="D75" s="139"/>
+      <c r="E75" s="139"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="139"/>
+      <c r="H75" s="139"/>
+      <c r="I75" s="139"/>
+      <c r="J75" s="139"/>
+      <c r="K75" s="139"/>
+      <c r="L75" s="139"/>
+      <c r="M75" s="139"/>
+      <c r="N75" s="139"/>
+      <c r="O75" s="139"/>
+      <c r="P75" s="139"/>
+      <c r="Q75" s="140"/>
+      <c r="R75" s="90">
+        <v>0.4</v>
+      </c>
+      <c r="S75" s="90"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
+      <c r="X75" s="46"/>
+      <c r="Y75" s="47"/>
+      <c r="Z75" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA75" s="49">
+        <v>0.876</v>
+      </c>
+      <c r="AB75" s="50"/>
+    </row>
+    <row r="76" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="137">
+        <v>44749</v>
+      </c>
+      <c r="B76" s="138" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="139"/>
+      <c r="D76" s="139"/>
+      <c r="E76" s="139"/>
+      <c r="F76" s="139"/>
+      <c r="G76" s="139"/>
+      <c r="H76" s="139"/>
+      <c r="I76" s="139"/>
+      <c r="J76" s="139"/>
+      <c r="K76" s="139"/>
+      <c r="L76" s="139"/>
+      <c r="M76" s="139"/>
+      <c r="N76" s="139"/>
+      <c r="O76" s="139"/>
+      <c r="P76" s="139"/>
+      <c r="Q76" s="140"/>
+      <c r="R76" s="90"/>
+      <c r="S76" s="90"/>
+      <c r="T76" s="90"/>
+      <c r="U76" s="90"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="46"/>
+      <c r="Y76" s="47"/>
+      <c r="Z76" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA76" s="49">
+        <v>0.877</v>
+      </c>
+      <c r="AB76" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB61" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="144">
-    <mergeCell ref="A66:Q66"/>
-    <mergeCell ref="A67:Q67"/>
-    <mergeCell ref="U49:U52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="W49:W52"/>
-    <mergeCell ref="X49:X52"/>
-    <mergeCell ref="Y49:Y52"/>
-    <mergeCell ref="O49:O52"/>
-    <mergeCell ref="P49:P52"/>
-    <mergeCell ref="Q49:Q52"/>
-    <mergeCell ref="R49:R52"/>
-    <mergeCell ref="T49:T52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="N49:N52"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="R36:R40"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="V36:V40"/>
-    <mergeCell ref="Y36:Y40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="J36:J40"/>
-    <mergeCell ref="L36:L40"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="N36:N40"/>
-    <mergeCell ref="O36:O40"/>
-    <mergeCell ref="P36:P40"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="A31:Q31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="A33:Q33"/>
+  <mergeCells count="150">
+    <mergeCell ref="B66:Q66"/>
+    <mergeCell ref="B67:Q67"/>
+    <mergeCell ref="B69:Q69"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B73:Q73"/>
+    <mergeCell ref="B74:Q74"/>
+    <mergeCell ref="B75:Q75"/>
+    <mergeCell ref="B76:Q76"/>
+    <mergeCell ref="Y63:Y64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
     <mergeCell ref="W43:W44"/>
     <mergeCell ref="X43:X44"/>
     <mergeCell ref="Y43:Y44"/>
@@ -6377,26 +6929,108 @@
     <mergeCell ref="L43:L44"/>
     <mergeCell ref="M43:M44"/>
     <mergeCell ref="N43:N44"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A31:Q31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="V36:V40"/>
+    <mergeCell ref="Y36:Y40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:N40"/>
+    <mergeCell ref="O36:O40"/>
+    <mergeCell ref="P36:P40"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="R36:R40"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="Y49:Y52"/>
+    <mergeCell ref="O49:O52"/>
+    <mergeCell ref="P49:P52"/>
+    <mergeCell ref="Q49:Q52"/>
+    <mergeCell ref="R49:R52"/>
+    <mergeCell ref="T49:T52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="N49:N52"/>
+    <mergeCell ref="U49:U52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="W49:W52"/>
+    <mergeCell ref="X49:X52"/>
     <mergeCell ref="T63:T64"/>
     <mergeCell ref="V63:V64"/>
     <mergeCell ref="W63:W64"/>
     <mergeCell ref="X63:X64"/>
-    <mergeCell ref="Y63:Y64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y2" r:id="rId1" xr:uid="{B194D28D-E667-4CDB-BE58-629A6A397331}"/>
@@ -6477,9 +7111,17 @@
     <hyperlink ref="Z64" r:id="rId76" xr:uid="{3EF8D2FD-37C0-48C5-9078-6307A638E04A}"/>
     <hyperlink ref="Z62" r:id="rId77" xr:uid="{B7BB03A8-100C-4D39-8CE5-E6FF1756F9DD}"/>
     <hyperlink ref="Z66" r:id="rId78" xr:uid="{47FF4741-716C-418C-9194-4F317456B58D}"/>
+    <hyperlink ref="Z69" r:id="rId79" xr:uid="{E68E10AA-9AEB-4058-9B19-429A8D60D7F3}"/>
+    <hyperlink ref="Z71" r:id="rId80" xr:uid="{B0B1C9C7-8313-46F1-92B6-8C552F010040}"/>
+    <hyperlink ref="Z67" r:id="rId81" xr:uid="{85F84ABA-B1F2-484C-93BE-057D7527B802}"/>
+    <hyperlink ref="Z70" r:id="rId82" xr:uid="{8003430C-BFF5-4BF3-853A-1561E4BD155B}"/>
+    <hyperlink ref="Z72" r:id="rId83" xr:uid="{506A19C4-ED67-4880-A9E9-38C8FF805541}"/>
+    <hyperlink ref="Z73" r:id="rId84" xr:uid="{A7A166FB-20C4-43F8-971D-E952DC753DB8}"/>
+    <hyperlink ref="Z74" r:id="rId85" xr:uid="{6EC4D250-55C1-4C03-BD61-76EA0703DF74}"/>
+    <hyperlink ref="Z76" r:id="rId86" xr:uid="{D88B78FD-120A-4909-A3A0-FAA1C836DE6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId87"/>
 </worksheet>
 </file>
 
@@ -6487,7 +7129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FA3174-C19C-42C1-AE8B-1531A80895C7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6501,55 +7143,55 @@
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>197</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6569,7 +7211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0FA8E6-0BF5-415E-B129-F1E1CCD09E56}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6580,18 +7222,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6614,26 +7256,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/gi_t_is/exps.xlsx
+++ b/gi_t_is/exps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\Kaggle\gi_t_is\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3A43C-9981-4F20-B6B4-B3508556F354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8A763B-8E51-4D70-B45F-3236BA6D6E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1426,7 +1426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1692,31 +1692,122 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1728,105 +1819,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2110,11 +2113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC76"/>
+  <dimension ref="A1:AC77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75:Q75"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2234,7 +2237,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>6.7800000000000082E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>31</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>5.3499999999999992E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>5.5599999999999983E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>7.8500000000000014E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>38</v>
       </c>
@@ -2649,26 +2652,26 @@
         <v>6.1200000000000032E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
+    <row r="7" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
       <c r="R7" s="17">
         <v>0.45</v>
       </c>
@@ -2681,9 +2684,9 @@
         <f>SUM(V2:V6)/5</f>
         <v>0.89971999999999996</v>
       </c>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
       <c r="Z7" s="14" t="s">
         <v>71</v>
       </c>
@@ -2695,26 +2698,26 @@
         <v>5.371999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="s">
+    <row r="8" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
       <c r="R8" s="17" t="s">
         <v>89</v>
       </c>
@@ -2727,9 +2730,9 @@
         <f>(V2*V3*V4*V5*V6)^(1/5)</f>
         <v>0.8996939854163285</v>
       </c>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
       <c r="Z8" s="14" t="s">
         <v>72</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>7.6693985416328547E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>5.5499999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>6.4670000000000005E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>6.0649999999999982E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -3157,53 +3160,53 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="108">
+      <c r="H14" s="124">
         <v>2E-3</v>
       </c>
-      <c r="I14" s="108">
+      <c r="I14" s="124">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J14" s="108" t="s">
+      <c r="J14" s="124" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="65"/>
-      <c r="L14" s="108" t="s">
+      <c r="L14" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="108" t="s">
+      <c r="M14" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="108">
+      <c r="N14" s="124">
         <v>15</v>
       </c>
       <c r="O14" s="23">
         <v>9</v>
       </c>
-      <c r="P14" s="108">
+      <c r="P14" s="124">
         <v>128</v>
       </c>
-      <c r="Q14" s="110">
+      <c r="Q14" s="128">
         <v>4</v>
       </c>
       <c r="R14" s="23">
@@ -3219,9 +3222,9 @@
       <c r="V14" s="25">
         <v>0.9052</v>
       </c>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="112" t="s">
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="126" t="s">
         <v>86</v>
       </c>
       <c r="Z14" s="26" t="s">
@@ -3236,25 +3239,25 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="109"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
       <c r="K15" s="66"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
       <c r="O15" s="23">
         <v>11</v>
       </c>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="111"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="129"/>
       <c r="R15" s="23">
         <v>0.4</v>
       </c>
@@ -3268,9 +3271,9 @@
       <c r="V15" s="25">
         <v>0.90767349045852097</v>
       </c>
-      <c r="W15" s="109"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="109"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
       <c r="Z15" s="26" t="s">
         <v>90</v>
       </c>
@@ -3283,25 +3286,25 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
       <c r="R16" s="23">
         <v>0.4</v>
       </c>
@@ -3329,25 +3332,25 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="115"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="132"/>
       <c r="R17" s="19">
         <v>0.4</v>
       </c>
@@ -3372,56 +3375,56 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="108" t="s">
+      <c r="G18" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="108">
+      <c r="H18" s="124">
         <v>2E-3</v>
       </c>
-      <c r="I18" s="108">
+      <c r="I18" s="124">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J18" s="108" t="s">
+      <c r="J18" s="124" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="65"/>
-      <c r="L18" s="108" t="s">
+      <c r="L18" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="108" t="s">
+      <c r="M18" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="108">
+      <c r="N18" s="124">
         <v>15</v>
       </c>
       <c r="O18" s="23">
         <v>14</v>
       </c>
-      <c r="P18" s="108">
+      <c r="P18" s="124">
         <v>128</v>
       </c>
-      <c r="Q18" s="110">
+      <c r="Q18" s="128">
         <v>0</v>
       </c>
-      <c r="R18" s="108">
+      <c r="R18" s="124">
         <v>0.4</v>
       </c>
       <c r="S18" s="78"/>
@@ -3434,9 +3437,9 @@
       <c r="V18" s="25">
         <v>0.91459137778128297</v>
       </c>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="112" t="s">
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="126" t="s">
         <v>97</v>
       </c>
       <c r="Z18" s="26" t="s">
@@ -3451,26 +3454,26 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="109"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
       <c r="K19" s="66"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
       <c r="O19" s="23">
         <v>13</v>
       </c>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="109"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="125"/>
       <c r="S19" s="79"/>
       <c r="T19" s="23" t="s">
         <v>117</v>
@@ -3481,9 +3484,9 @@
       <c r="V19" s="25">
         <v>0.91420000000000001</v>
       </c>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="109"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
       <c r="Z19" s="33"/>
       <c r="AA19" s="33"/>
       <c r="AB19" s="33">
@@ -3492,25 +3495,25 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
       <c r="R20" s="23">
         <v>0.4</v>
       </c>
@@ -3538,25 +3541,25 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
       <c r="R21" s="28">
         <v>0.4</v>
       </c>
@@ -3578,25 +3581,25 @@
       <c r="AB21" s="31"/>
     </row>
     <row r="22" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="119"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="123"/>
       <c r="R22" s="28">
         <v>0.4</v>
       </c>
@@ -3618,25 +3621,25 @@
       <c r="AB22" s="31"/>
     </row>
     <row r="23" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="119"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="123"/>
       <c r="R23" s="28">
         <v>0.4</v>
       </c>
@@ -3658,25 +3661,25 @@
       <c r="AB23" s="31"/>
     </row>
     <row r="24" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="119"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="123"/>
       <c r="R24" s="28">
         <v>0.4</v>
       </c>
@@ -3911,25 +3914,25 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="116"/>
       <c r="R28" s="45">
         <v>0.4</v>
       </c>
@@ -3951,25 +3954,25 @@
       <c r="AB28" s="48"/>
     </row>
     <row r="29" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="116"/>
       <c r="R29" s="45">
         <v>0.4</v>
       </c>
@@ -3991,25 +3994,25 @@
       <c r="AB29" s="48"/>
     </row>
     <row r="30" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
       <c r="R30" s="45">
         <v>0.4</v>
       </c>
@@ -4031,25 +4034,25 @@
       <c r="AB30" s="48"/>
     </row>
     <row r="31" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="116"/>
+      <c r="Q31" s="116"/>
       <c r="R31" s="45">
         <v>0.4</v>
       </c>
@@ -4071,25 +4074,25 @@
       <c r="AB31" s="48"/>
     </row>
     <row r="32" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
       <c r="R32" s="45">
         <v>0.4</v>
       </c>
@@ -4111,25 +4114,25 @@
       <c r="AB32" s="48"/>
     </row>
     <row r="33" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="116"/>
       <c r="R33" s="45">
         <v>0.4</v>
       </c>
@@ -4151,25 +4154,25 @@
       <c r="AB33" s="49"/>
     </row>
     <row r="34" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
       <c r="R34" s="45">
         <v>0.4</v>
       </c>
@@ -4191,25 +4194,25 @@
       <c r="AB34" s="50"/>
     </row>
     <row r="35" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
+      <c r="Q35" s="116"/>
       <c r="R35" s="45">
         <v>0.4</v>
       </c>
@@ -4231,71 +4234,71 @@
       <c r="AB35" s="49"/>
     </row>
     <row r="36" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="100" t="s">
+      <c r="C36" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="100" t="s">
+      <c r="E36" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="100" t="s">
+      <c r="F36" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="100" t="s">
+      <c r="G36" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="100">
+      <c r="H36" s="117">
         <v>2E-3</v>
       </c>
-      <c r="I36" s="100">
+      <c r="I36" s="117">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J36" s="100" t="s">
+      <c r="J36" s="117" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="64"/>
-      <c r="L36" s="100" t="s">
+      <c r="L36" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="M36" s="100" t="s">
+      <c r="M36" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="100">
+      <c r="N36" s="117">
         <v>15</v>
       </c>
-      <c r="O36" s="100">
+      <c r="O36" s="117">
         <v>13</v>
       </c>
-      <c r="P36" s="100">
+      <c r="P36" s="117">
         <v>64</v>
       </c>
-      <c r="Q36" s="100">
+      <c r="Q36" s="117">
         <v>0</v>
       </c>
-      <c r="R36" s="100">
+      <c r="R36" s="117">
         <v>0.4</v>
       </c>
       <c r="S36" s="77"/>
       <c r="T36" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="U36" s="121" t="s">
+      <c r="U36" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="V36" s="103">
+      <c r="V36" s="134">
         <v>0.91606262570521801</v>
       </c>
       <c r="W36" s="42"/>
       <c r="X36" s="42"/>
-      <c r="Y36" s="106" t="s">
+      <c r="Y36" s="137" t="s">
         <v>114</v>
       </c>
       <c r="Z36" s="44" t="s">
@@ -4310,33 +4313,33 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
       <c r="K37" s="77"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="93"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="93"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="116"/>
       <c r="S37" s="77"/>
       <c r="T37" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="U37" s="122"/>
-      <c r="V37" s="104"/>
+      <c r="U37" s="119"/>
+      <c r="V37" s="135"/>
       <c r="W37" s="42"/>
       <c r="X37" s="42"/>
-      <c r="Y37" s="93"/>
+      <c r="Y37" s="116"/>
       <c r="Z37" s="44" t="s">
         <v>118</v>
       </c>
@@ -4349,33 +4352,33 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
       <c r="K38" s="77"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="116"/>
+      <c r="Q38" s="116"/>
+      <c r="R38" s="116"/>
       <c r="S38" s="77"/>
       <c r="T38" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="U38" s="122"/>
-      <c r="V38" s="104"/>
+      <c r="U38" s="119"/>
+      <c r="V38" s="135"/>
       <c r="W38" s="42"/>
       <c r="X38" s="42"/>
-      <c r="Y38" s="93"/>
+      <c r="Y38" s="116"/>
       <c r="Z38" s="44" t="s">
         <v>122</v>
       </c>
@@ -4388,33 +4391,33 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
       <c r="K39" s="77"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
       <c r="S39" s="77"/>
       <c r="T39" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="U39" s="122"/>
-      <c r="V39" s="105"/>
+      <c r="U39" s="119"/>
+      <c r="V39" s="136"/>
       <c r="W39" s="42"/>
       <c r="X39" s="42"/>
-      <c r="Y39" s="101"/>
+      <c r="Y39" s="113"/>
       <c r="Z39" s="44" t="s">
         <v>123</v>
       </c>
@@ -4427,33 +4430,33 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
       <c r="K40" s="77"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
       <c r="S40" s="77"/>
       <c r="T40" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="U40" s="123"/>
-      <c r="V40" s="105"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="136"/>
       <c r="W40" s="42"/>
       <c r="X40" s="42"/>
-      <c r="Y40" s="101"/>
+      <c r="Y40" s="113"/>
       <c r="Z40" s="44" t="s">
         <v>125</v>
       </c>
@@ -4624,71 +4627,71 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="102" t="s">
+      <c r="C43" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="102" t="s">
+      <c r="D43" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="102" t="s">
+      <c r="E43" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="102" t="s">
+      <c r="F43" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="102" t="s">
+      <c r="G43" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="102">
+      <c r="H43" s="112">
         <v>2E-3</v>
       </c>
-      <c r="I43" s="102">
+      <c r="I43" s="112">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J43" s="102" t="s">
+      <c r="J43" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="98"/>
-      <c r="L43" s="102" t="s">
+      <c r="K43" s="138"/>
+      <c r="L43" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="M43" s="102" t="s">
+      <c r="M43" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="N43" s="102">
+      <c r="N43" s="112">
         <v>18</v>
       </c>
-      <c r="O43" s="102">
+      <c r="O43" s="112">
         <v>16</v>
       </c>
-      <c r="P43" s="102">
+      <c r="P43" s="112">
         <v>64</v>
       </c>
-      <c r="Q43" s="102">
+      <c r="Q43" s="112">
         <v>0</v>
       </c>
-      <c r="R43" s="102">
+      <c r="R43" s="112">
         <v>0.4</v>
       </c>
       <c r="S43" s="82"/>
-      <c r="T43" s="102" t="s">
+      <c r="T43" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="U43" s="102" t="s">
+      <c r="U43" s="112" t="s">
         <v>153</v>
       </c>
       <c r="V43" s="69">
         <v>0.910999237559735</v>
       </c>
-      <c r="W43" s="102"/>
-      <c r="X43" s="102"/>
-      <c r="Y43" s="120" t="s">
+      <c r="W43" s="112"/>
+      <c r="X43" s="112"/>
+      <c r="Y43" s="114" t="s">
         <v>167</v>
       </c>
       <c r="Z43" s="67" t="s">
@@ -4703,33 +4706,33 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
       <c r="S44" s="82"/>
-      <c r="T44" s="101"/>
-      <c r="U44" s="101"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
       <c r="V44" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
+      <c r="Y44" s="113"/>
       <c r="Z44" s="67" t="s">
         <v>170</v>
       </c>
@@ -5082,79 +5085,79 @@
       </c>
     </row>
     <row r="49" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="94" t="s">
+      <c r="A49" s="140" t="s">
         <v>199</v>
       </c>
-      <c r="B49" s="94" t="s">
+      <c r="B49" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="94" t="s">
+      <c r="C49" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="94" t="s">
+      <c r="D49" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="94" t="s">
+      <c r="E49" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="94" t="s">
+      <c r="F49" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="G49" s="94" t="s">
+      <c r="G49" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="94">
+      <c r="H49" s="140">
         <v>2E-3</v>
       </c>
-      <c r="I49" s="94">
+      <c r="I49" s="140">
         <v>0</v>
       </c>
-      <c r="J49" s="94" t="s">
+      <c r="J49" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="K49" s="94" t="s">
+      <c r="K49" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="L49" s="94" t="s">
+      <c r="L49" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="M49" s="94" t="s">
+      <c r="M49" s="140" t="s">
         <v>196</v>
       </c>
-      <c r="N49" s="94">
+      <c r="N49" s="140">
         <v>30</v>
       </c>
-      <c r="O49" s="94">
+      <c r="O49" s="140">
         <v>30</v>
       </c>
-      <c r="P49" s="94">
+      <c r="P49" s="140">
         <v>128</v>
       </c>
-      <c r="Q49" s="94">
+      <c r="Q49" s="140">
         <v>0</v>
       </c>
-      <c r="R49" s="94">
+      <c r="R49" s="140">
         <v>0.4</v>
       </c>
       <c r="S49" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="T49" s="94" t="s">
+      <c r="T49" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="U49" s="94" t="s">
+      <c r="U49" s="140" t="s">
         <v>175</v>
       </c>
       <c r="V49" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W49" s="94" t="s">
+      <c r="W49" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="X49" s="94" t="s">
+      <c r="X49" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="Y49" s="97" t="s">
+      <c r="Y49" s="142" t="s">
         <v>201</v>
       </c>
       <c r="Z49" s="74" t="s">
@@ -5169,35 +5172,35 @@
       </c>
     </row>
     <row r="50" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="95"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
-      <c r="L50" s="95"/>
-      <c r="M50" s="95"/>
-      <c r="N50" s="95"/>
-      <c r="O50" s="95"/>
-      <c r="P50" s="95"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="95"/>
+      <c r="A50" s="141"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="141"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="141"/>
+      <c r="M50" s="141"/>
+      <c r="N50" s="141"/>
+      <c r="O50" s="141"/>
+      <c r="P50" s="141"/>
+      <c r="Q50" s="141"/>
+      <c r="R50" s="141"/>
       <c r="S50" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="T50" s="95"/>
-      <c r="U50" s="95"/>
+      <c r="T50" s="141"/>
+      <c r="U50" s="141"/>
       <c r="V50" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W50" s="95"/>
-      <c r="X50" s="95"/>
-      <c r="Y50" s="95"/>
+      <c r="W50" s="141"/>
+      <c r="X50" s="141"/>
+      <c r="Y50" s="141"/>
       <c r="Z50" s="74" t="s">
         <v>217</v>
       </c>
@@ -5210,35 +5213,35 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="95"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="95"/>
+      <c r="A51" s="141"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="141"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="141"/>
+      <c r="J51" s="141"/>
+      <c r="K51" s="141"/>
+      <c r="L51" s="141"/>
+      <c r="M51" s="141"/>
+      <c r="N51" s="141"/>
+      <c r="O51" s="141"/>
+      <c r="P51" s="141"/>
+      <c r="Q51" s="141"/>
+      <c r="R51" s="141"/>
       <c r="S51" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="T51" s="95"/>
-      <c r="U51" s="95"/>
+      <c r="T51" s="141"/>
+      <c r="U51" s="141"/>
       <c r="V51" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W51" s="95"/>
-      <c r="X51" s="95"/>
-      <c r="Y51" s="95"/>
+      <c r="W51" s="141"/>
+      <c r="X51" s="141"/>
+      <c r="Y51" s="141"/>
       <c r="Z51" s="74" t="s">
         <v>218</v>
       </c>
@@ -5251,35 +5254,35 @@
       </c>
     </row>
     <row r="52" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="96"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="96"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="111"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
       <c r="S52" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="T52" s="96"/>
-      <c r="U52" s="96"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
       <c r="V52" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W52" s="96"/>
-      <c r="X52" s="96"/>
-      <c r="Y52" s="96"/>
+      <c r="W52" s="111"/>
+      <c r="X52" s="111"/>
+      <c r="Y52" s="111"/>
       <c r="Z52" s="74" t="s">
         <v>219</v>
       </c>
@@ -6126,47 +6129,47 @@
       <c r="A63" s="88">
         <v>44735</v>
       </c>
-      <c r="B63" s="124" t="s">
+      <c r="B63" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="124" t="s">
+      <c r="C63" s="110" t="s">
         <v>253</v>
       </c>
-      <c r="D63" s="124" t="s">
+      <c r="D63" s="110" t="s">
         <v>247</v>
       </c>
-      <c r="E63" s="124" t="s">
+      <c r="E63" s="110" t="s">
         <v>245</v>
       </c>
-      <c r="F63" s="124" t="s">
+      <c r="F63" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G63" s="124" t="s">
+      <c r="G63" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="124">
+      <c r="H63" s="110">
         <v>1E-3</v>
       </c>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124" t="s">
+      <c r="I63" s="110"/>
+      <c r="J63" s="110" t="s">
         <v>258</v>
       </c>
-      <c r="K63" s="124" t="s">
+      <c r="K63" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="L63" s="124" t="s">
+      <c r="L63" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="M63" s="124" t="s">
+      <c r="M63" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="N63" s="124">
+      <c r="N63" s="110">
         <v>29</v>
       </c>
-      <c r="O63" s="124">
+      <c r="O63" s="110">
         <v>29</v>
       </c>
-      <c r="P63" s="124">
+      <c r="P63" s="110">
         <v>32</v>
       </c>
       <c r="Q63" s="4"/>
@@ -6174,22 +6177,22 @@
         <v>0.5</v>
       </c>
       <c r="S63" s="4"/>
-      <c r="T63" s="124" t="s">
+      <c r="T63" s="110" t="s">
         <v>117</v>
       </c>
       <c r="U63" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="V63" s="124">
+      <c r="V63" s="110">
         <v>0.89729999999999999</v>
       </c>
-      <c r="W63" s="124" t="s">
+      <c r="W63" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="X63" s="124" t="s">
+      <c r="X63" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Y63" s="125" t="s">
+      <c r="Y63" s="108" t="s">
         <v>19</v>
       </c>
       <c r="Z63" s="6" t="s">
@@ -6205,34 +6208,34 @@
     </row>
     <row r="64" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="88"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="96"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="96"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="96"/>
-      <c r="J64" s="96"/>
-      <c r="K64" s="96"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="96"/>
-      <c r="O64" s="96"/>
-      <c r="P64" s="96"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="111"/>
+      <c r="J64" s="111"/>
+      <c r="K64" s="111"/>
+      <c r="L64" s="111"/>
+      <c r="M64" s="111"/>
+      <c r="N64" s="111"/>
+      <c r="O64" s="111"/>
+      <c r="P64" s="111"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4">
         <v>0.4</v>
       </c>
       <c r="S64" s="4"/>
-      <c r="T64" s="96"/>
+      <c r="T64" s="111"/>
       <c r="U64" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="V64" s="96"/>
-      <c r="W64" s="96"/>
-      <c r="X64" s="96"/>
-      <c r="Y64" s="126"/>
+      <c r="V64" s="111"/>
+      <c r="W64" s="111"/>
+      <c r="X64" s="111"/>
+      <c r="Y64" s="109"/>
       <c r="Z64" s="6" t="s">
         <v>262</v>
       </c>
@@ -6326,27 +6329,27 @@
       </c>
     </row>
     <row r="66" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="137">
+      <c r="A66" s="103">
         <v>44747</v>
       </c>
-      <c r="B66" s="138" t="s">
+      <c r="B66" s="105" t="s">
         <v>267</v>
       </c>
-      <c r="C66" s="139"/>
-      <c r="D66" s="139"/>
-      <c r="E66" s="139"/>
-      <c r="F66" s="139"/>
-      <c r="G66" s="139"/>
-      <c r="H66" s="139"/>
-      <c r="I66" s="139"/>
-      <c r="J66" s="139"/>
-      <c r="K66" s="139"/>
-      <c r="L66" s="139"/>
-      <c r="M66" s="139"/>
-      <c r="N66" s="139"/>
-      <c r="O66" s="139"/>
-      <c r="P66" s="139"/>
-      <c r="Q66" s="140"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="106"/>
+      <c r="J66" s="106"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="106"/>
+      <c r="N66" s="106"/>
+      <c r="O66" s="106"/>
+      <c r="P66" s="106"/>
+      <c r="Q66" s="107"/>
       <c r="R66" s="89">
         <v>0.4</v>
       </c>
@@ -6366,27 +6369,27 @@
       <c r="AB66" s="49"/>
     </row>
     <row r="67" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="137">
+      <c r="A67" s="103">
         <v>44747</v>
       </c>
-      <c r="B67" s="138" t="s">
+      <c r="B67" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="C67" s="139"/>
-      <c r="D67" s="139"/>
-      <c r="E67" s="139"/>
-      <c r="F67" s="139"/>
-      <c r="G67" s="139"/>
-      <c r="H67" s="139"/>
-      <c r="I67" s="139"/>
-      <c r="J67" s="139"/>
-      <c r="K67" s="139"/>
-      <c r="L67" s="139"/>
-      <c r="M67" s="139"/>
-      <c r="N67" s="139"/>
-      <c r="O67" s="139"/>
-      <c r="P67" s="139"/>
-      <c r="Q67" s="140"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="106"/>
+      <c r="K67" s="106"/>
+      <c r="L67" s="106"/>
+      <c r="M67" s="106"/>
+      <c r="N67" s="106"/>
+      <c r="O67" s="106"/>
+      <c r="P67" s="106"/>
+      <c r="Q67" s="107"/>
       <c r="R67" s="89">
         <v>0.4</v>
       </c>
@@ -6406,7 +6409,7 @@
       <c r="AB67" s="49"/>
     </row>
     <row r="68" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="127">
+      <c r="A68" s="93">
         <v>44737</v>
       </c>
       <c r="B68" s="19" t="s">
@@ -6427,10 +6430,10 @@
       <c r="G68" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="128">
+      <c r="H68" s="94">
         <v>1E-3</v>
       </c>
-      <c r="I68" s="128">
+      <c r="I68" s="94">
         <v>3.3800000000000002E-5</v>
       </c>
       <c r="J68" s="19" t="s">
@@ -6463,16 +6466,16 @@
       <c r="U68" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="V68" s="129">
+      <c r="V68" s="95">
         <v>0.90180000000000005</v>
       </c>
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
-      <c r="Y68" s="130"/>
+      <c r="Y68" s="96"/>
       <c r="Z68" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="AA68" s="131">
+      <c r="AA68" s="97">
         <v>0.87</v>
       </c>
       <c r="AB68" s="21">
@@ -6481,27 +6484,27 @@
       </c>
     </row>
     <row r="69" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="137">
+      <c r="A69" s="103">
         <v>44748</v>
       </c>
-      <c r="B69" s="138" t="s">
+      <c r="B69" s="105" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="139"/>
-      <c r="D69" s="139"/>
-      <c r="E69" s="139"/>
-      <c r="F69" s="139"/>
-      <c r="G69" s="139"/>
-      <c r="H69" s="139"/>
-      <c r="I69" s="139"/>
-      <c r="J69" s="139"/>
-      <c r="K69" s="139"/>
-      <c r="L69" s="139"/>
-      <c r="M69" s="139"/>
-      <c r="N69" s="139"/>
-      <c r="O69" s="139"/>
-      <c r="P69" s="139"/>
-      <c r="Q69" s="140"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="106"/>
+      <c r="J69" s="106"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="106"/>
+      <c r="N69" s="106"/>
+      <c r="O69" s="106"/>
+      <c r="P69" s="106"/>
+      <c r="Q69" s="107"/>
       <c r="R69" s="90">
         <v>0.4</v>
       </c>
@@ -6527,27 +6530,27 @@
       </c>
     </row>
     <row r="70" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="137">
+      <c r="A70" s="103">
         <v>44748</v>
       </c>
-      <c r="B70" s="138" t="s">
+      <c r="B70" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="C70" s="139"/>
-      <c r="D70" s="139"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="139"/>
-      <c r="G70" s="139"/>
-      <c r="H70" s="139"/>
-      <c r="I70" s="139"/>
-      <c r="J70" s="139"/>
-      <c r="K70" s="139"/>
-      <c r="L70" s="139"/>
-      <c r="M70" s="139"/>
-      <c r="N70" s="139"/>
-      <c r="O70" s="139"/>
-      <c r="P70" s="139"/>
-      <c r="Q70" s="140"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="106"/>
+      <c r="N70" s="106"/>
+      <c r="O70" s="106"/>
+      <c r="P70" s="106"/>
+      <c r="Q70" s="107"/>
       <c r="R70" s="90"/>
       <c r="S70" s="90"/>
       <c r="T70" s="90"/>
@@ -6559,13 +6562,13 @@
       <c r="Z70" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="AA70" s="141">
+      <c r="AA70" s="104">
         <v>0.876</v>
       </c>
       <c r="AB70" s="49"/>
     </row>
     <row r="71" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="136">
+      <c r="A71" s="102">
         <v>44748</v>
       </c>
       <c r="B71" s="28" t="s">
@@ -6586,10 +6589,10 @@
       <c r="G71" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="132">
+      <c r="H71" s="98">
         <v>1E-3</v>
       </c>
-      <c r="I71" s="132">
+      <c r="I71" s="98">
         <v>4.6000000000000001E-4</v>
       </c>
       <c r="J71" s="28" t="s">
@@ -6622,16 +6625,16 @@
       <c r="U71" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="V71" s="133">
+      <c r="V71" s="99">
         <v>0.87229999999999996</v>
       </c>
       <c r="W71" s="28"/>
       <c r="X71" s="28"/>
-      <c r="Y71" s="134"/>
+      <c r="Y71" s="100"/>
       <c r="Z71" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="AA71" s="135">
+      <c r="AA71" s="101">
         <v>0.85899999999999999</v>
       </c>
       <c r="AB71" s="31">
@@ -6721,27 +6724,27 @@
       </c>
     </row>
     <row r="73" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="137">
+      <c r="A73" s="103">
         <v>44748</v>
       </c>
-      <c r="B73" s="138" t="s">
+      <c r="B73" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="C73" s="139"/>
-      <c r="D73" s="139"/>
-      <c r="E73" s="139"/>
-      <c r="F73" s="139"/>
-      <c r="G73" s="139"/>
-      <c r="H73" s="139"/>
-      <c r="I73" s="139"/>
-      <c r="J73" s="139"/>
-      <c r="K73" s="139"/>
-      <c r="L73" s="139"/>
-      <c r="M73" s="139"/>
-      <c r="N73" s="139"/>
-      <c r="O73" s="139"/>
-      <c r="P73" s="139"/>
-      <c r="Q73" s="140"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="106"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
+      <c r="J73" s="106"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="106"/>
+      <c r="M73" s="106"/>
+      <c r="N73" s="106"/>
+      <c r="O73" s="106"/>
+      <c r="P73" s="106"/>
+      <c r="Q73" s="107"/>
       <c r="R73" s="90">
         <v>0.4</v>
       </c>
@@ -6761,27 +6764,27 @@
       <c r="AB73" s="50"/>
     </row>
     <row r="74" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="137">
+      <c r="A74" s="103">
         <v>44749</v>
       </c>
-      <c r="B74" s="138" t="s">
+      <c r="B74" s="105" t="s">
         <v>283</v>
       </c>
-      <c r="C74" s="139"/>
-      <c r="D74" s="139"/>
-      <c r="E74" s="139"/>
-      <c r="F74" s="139"/>
-      <c r="G74" s="139"/>
-      <c r="H74" s="139"/>
-      <c r="I74" s="139"/>
-      <c r="J74" s="139"/>
-      <c r="K74" s="139"/>
-      <c r="L74" s="139"/>
-      <c r="M74" s="139"/>
-      <c r="N74" s="139"/>
-      <c r="O74" s="139"/>
-      <c r="P74" s="139"/>
-      <c r="Q74" s="140"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="106"/>
+      <c r="F74" s="106"/>
+      <c r="G74" s="106"/>
+      <c r="H74" s="106"/>
+      <c r="I74" s="106"/>
+      <c r="J74" s="106"/>
+      <c r="K74" s="106"/>
+      <c r="L74" s="106"/>
+      <c r="M74" s="106"/>
+      <c r="N74" s="106"/>
+      <c r="O74" s="106"/>
+      <c r="P74" s="106"/>
+      <c r="Q74" s="107"/>
       <c r="R74" s="90">
         <v>0.4</v>
       </c>
@@ -6801,27 +6804,27 @@
       <c r="AB74" s="50"/>
     </row>
     <row r="75" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="137">
+      <c r="A75" s="103">
         <v>44749</v>
       </c>
-      <c r="B75" s="138" t="s">
+      <c r="B75" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="C75" s="139"/>
-      <c r="D75" s="139"/>
-      <c r="E75" s="139"/>
-      <c r="F75" s="139"/>
-      <c r="G75" s="139"/>
-      <c r="H75" s="139"/>
-      <c r="I75" s="139"/>
-      <c r="J75" s="139"/>
-      <c r="K75" s="139"/>
-      <c r="L75" s="139"/>
-      <c r="M75" s="139"/>
-      <c r="N75" s="139"/>
-      <c r="O75" s="139"/>
-      <c r="P75" s="139"/>
-      <c r="Q75" s="140"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="106"/>
+      <c r="G75" s="106"/>
+      <c r="H75" s="106"/>
+      <c r="I75" s="106"/>
+      <c r="J75" s="106"/>
+      <c r="K75" s="106"/>
+      <c r="L75" s="106"/>
+      <c r="M75" s="106"/>
+      <c r="N75" s="106"/>
+      <c r="O75" s="106"/>
+      <c r="P75" s="106"/>
+      <c r="Q75" s="107"/>
       <c r="R75" s="90">
         <v>0.4</v>
       </c>
@@ -6841,27 +6844,27 @@
       <c r="AB75" s="50"/>
     </row>
     <row r="76" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="137">
+      <c r="A76" s="103">
         <v>44749</v>
       </c>
-      <c r="B76" s="138" t="s">
+      <c r="B76" s="105" t="s">
         <v>288</v>
       </c>
-      <c r="C76" s="139"/>
-      <c r="D76" s="139"/>
-      <c r="E76" s="139"/>
-      <c r="F76" s="139"/>
-      <c r="G76" s="139"/>
-      <c r="H76" s="139"/>
-      <c r="I76" s="139"/>
-      <c r="J76" s="139"/>
-      <c r="K76" s="139"/>
-      <c r="L76" s="139"/>
-      <c r="M76" s="139"/>
-      <c r="N76" s="139"/>
-      <c r="O76" s="139"/>
-      <c r="P76" s="139"/>
-      <c r="Q76" s="140"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="106"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="106"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="106"/>
+      <c r="L76" s="106"/>
+      <c r="M76" s="106"/>
+      <c r="N76" s="106"/>
+      <c r="O76" s="106"/>
+      <c r="P76" s="106"/>
+      <c r="Q76" s="107"/>
       <c r="R76" s="90"/>
       <c r="S76" s="90"/>
       <c r="T76" s="90"/>
@@ -6878,9 +6881,166 @@
       </c>
       <c r="AB76" s="50"/>
     </row>
+    <row r="77" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="103"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="106"/>
+      <c r="E77" s="106"/>
+      <c r="F77" s="106"/>
+      <c r="G77" s="106"/>
+      <c r="H77" s="106"/>
+      <c r="I77" s="106"/>
+      <c r="J77" s="106"/>
+      <c r="K77" s="106"/>
+      <c r="L77" s="106"/>
+      <c r="M77" s="106"/>
+      <c r="N77" s="106"/>
+      <c r="O77" s="106"/>
+      <c r="P77" s="106"/>
+      <c r="Q77" s="107"/>
+      <c r="R77" s="92"/>
+      <c r="S77" s="92"/>
+      <c r="T77" s="92"/>
+      <c r="U77" s="92"/>
+      <c r="V77" s="46"/>
+      <c r="W77" s="46"/>
+      <c r="X77" s="46"/>
+      <c r="Y77" s="47"/>
+      <c r="Z77" s="47"/>
+      <c r="AA77" s="49"/>
+      <c r="AB77" s="50"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB61" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="150">
+  <mergeCells count="151">
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="B77:Q77"/>
+    <mergeCell ref="Y49:Y52"/>
+    <mergeCell ref="O49:O52"/>
+    <mergeCell ref="P49:P52"/>
+    <mergeCell ref="Q49:Q52"/>
+    <mergeCell ref="R49:R52"/>
+    <mergeCell ref="T49:T52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="N49:N52"/>
+    <mergeCell ref="U49:U52"/>
+    <mergeCell ref="W49:W52"/>
+    <mergeCell ref="X49:X52"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="R36:R40"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="V36:V40"/>
+    <mergeCell ref="Y36:Y40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:N40"/>
+    <mergeCell ref="O36:O40"/>
+    <mergeCell ref="P36:P40"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A31:Q31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="A34:Q34"/>
+    <mergeCell ref="A35:Q35"/>
+    <mergeCell ref="Q36:Q40"/>
+    <mergeCell ref="U36:U40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
     <mergeCell ref="B66:Q66"/>
     <mergeCell ref="B67:Q67"/>
     <mergeCell ref="B69:Q69"/>
@@ -6905,132 +7065,6 @@
     <mergeCell ref="N63:N64"/>
     <mergeCell ref="O63:O64"/>
     <mergeCell ref="P63:P64"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="A34:Q34"/>
-    <mergeCell ref="A35:Q35"/>
-    <mergeCell ref="Q36:Q40"/>
-    <mergeCell ref="U36:U40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="A31:Q31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="V36:V40"/>
-    <mergeCell ref="Y36:Y40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="J36:J40"/>
-    <mergeCell ref="L36:L40"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="N36:N40"/>
-    <mergeCell ref="O36:O40"/>
-    <mergeCell ref="P36:P40"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="R36:R40"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="Y49:Y52"/>
-    <mergeCell ref="O49:O52"/>
-    <mergeCell ref="P49:P52"/>
-    <mergeCell ref="Q49:Q52"/>
-    <mergeCell ref="R49:R52"/>
-    <mergeCell ref="T49:T52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="N49:N52"/>
-    <mergeCell ref="U49:U52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="W49:W52"/>
-    <mergeCell ref="X49:X52"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y2" r:id="rId1" xr:uid="{B194D28D-E667-4CDB-BE58-629A6A397331}"/>

--- a/gi_t_is/exps.xlsx
+++ b/gi_t_is/exps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\Kaggle\gi_t_is\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8A763B-8E51-4D70-B45F-3236BA6D6E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D159C-61F5-493E-B5E2-3EAC8F44879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="296">
   <si>
     <t>main net</t>
   </si>
@@ -1083,6 +1083,24 @@
   </si>
   <si>
     <t>https://www.kaggle.com/code/andreyzotov/p25-5m-2-1d-10m-1-20-lum-4m-2?scriptVersionId=100250158</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-unet-b4-deep-5-best-valid-l0-1093-s0-8964?scriptVersionId=100345263</t>
+  </si>
+  <si>
+    <t>26h 4m</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/andreyzotov/lum-ub4-d5-l0-1061-s0-8994?scriptVersionId=100360430</t>
+  </si>
+  <si>
+    <t>Average 2lum ub4_d5 (0.8964/0.867 + 0.8994/0.869)</t>
+  </si>
+  <si>
+    <t>[pub 25 5m]*2 + [1d 10m] + lum[4m+2m_d5]</t>
+  </si>
+  <si>
+    <t>Average [pub 25 5m]*2 + [1d 10m] + lum[4m+2m_d5]</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1689,43 +1707,49 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1737,41 +1761,63 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1783,53 +1829,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2113,11 +2134,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC77"/>
+  <dimension ref="A1:AC80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB80" sqref="AB80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2653,25 +2674,25 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
       <c r="R7" s="17">
         <v>0.45</v>
       </c>
@@ -2684,9 +2705,9 @@
         <f>SUM(V2:V6)/5</f>
         <v>0.89971999999999996</v>
       </c>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="130"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="132"/>
+      <c r="Y7" s="132"/>
       <c r="Z7" s="14" t="s">
         <v>71</v>
       </c>
@@ -2699,25 +2720,25 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="130"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="17" t="s">
         <v>89</v>
       </c>
@@ -2730,9 +2751,9 @@
         <f>(V2*V3*V4*V5*V6)^(1/5)</f>
         <v>0.8996939854163285</v>
       </c>
-      <c r="W8" s="130"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="130"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="14" t="s">
         <v>72</v>
       </c>
@@ -3206,7 +3227,7 @@
       <c r="P14" s="124">
         <v>128</v>
       </c>
-      <c r="Q14" s="128">
+      <c r="Q14" s="126">
         <v>4</v>
       </c>
       <c r="R14" s="23">
@@ -3224,7 +3245,7 @@
       </c>
       <c r="W14" s="124"/>
       <c r="X14" s="124"/>
-      <c r="Y14" s="126" t="s">
+      <c r="Y14" s="128" t="s">
         <v>86</v>
       </c>
       <c r="Z14" s="26" t="s">
@@ -3257,7 +3278,7 @@
         <v>11</v>
       </c>
       <c r="P15" s="125"/>
-      <c r="Q15" s="129"/>
+      <c r="Q15" s="127"/>
       <c r="R15" s="23">
         <v>0.4</v>
       </c>
@@ -3286,25 +3307,25 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
       <c r="R16" s="23">
         <v>0.4</v>
       </c>
@@ -3332,25 +3353,25 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="132"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="131"/>
       <c r="R17" s="19">
         <v>0.4</v>
       </c>
@@ -3421,7 +3442,7 @@
       <c r="P18" s="124">
         <v>128</v>
       </c>
-      <c r="Q18" s="128">
+      <c r="Q18" s="126">
         <v>0</v>
       </c>
       <c r="R18" s="124">
@@ -3439,7 +3460,7 @@
       </c>
       <c r="W18" s="124"/>
       <c r="X18" s="124"/>
-      <c r="Y18" s="126" t="s">
+      <c r="Y18" s="128" t="s">
         <v>97</v>
       </c>
       <c r="Z18" s="26" t="s">
@@ -3472,7 +3493,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="125"/>
-      <c r="Q19" s="129"/>
+      <c r="Q19" s="127"/>
       <c r="R19" s="125"/>
       <c r="S19" s="79"/>
       <c r="T19" s="23" t="s">
@@ -3495,25 +3516,25 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="127" t="s">
+      <c r="A20" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
       <c r="R20" s="23">
         <v>0.4</v>
       </c>
@@ -3541,25 +3562,25 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="133"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
       <c r="R21" s="28">
         <v>0.4</v>
       </c>
@@ -3581,25 +3602,25 @@
       <c r="AB21" s="31"/>
     </row>
     <row r="22" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="123"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="135"/>
       <c r="R22" s="28">
         <v>0.4</v>
       </c>
@@ -3621,25 +3642,25 @@
       <c r="AB22" s="31"/>
     </row>
     <row r="23" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="123"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="135"/>
       <c r="R23" s="28">
         <v>0.4</v>
       </c>
@@ -3661,25 +3682,25 @@
       <c r="AB23" s="31"/>
     </row>
     <row r="24" spans="1:28" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="123"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="135"/>
       <c r="R24" s="28">
         <v>0.4</v>
       </c>
@@ -3914,7 +3935,7 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="136" t="s">
         <v>130</v>
       </c>
       <c r="B28" s="116"/>
@@ -3954,7 +3975,7 @@
       <c r="AB28" s="48"/>
     </row>
     <row r="29" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="136" t="s">
         <v>134</v>
       </c>
       <c r="B29" s="116"/>
@@ -3994,7 +4015,7 @@
       <c r="AB29" s="48"/>
     </row>
     <row r="30" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="136" t="s">
         <v>138</v>
       </c>
       <c r="B30" s="116"/>
@@ -4034,7 +4055,7 @@
       <c r="AB30" s="48"/>
     </row>
     <row r="31" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="136" t="s">
         <v>140</v>
       </c>
       <c r="B31" s="116"/>
@@ -4074,7 +4095,7 @@
       <c r="AB31" s="48"/>
     </row>
     <row r="32" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="136" t="s">
         <v>142</v>
       </c>
       <c r="B32" s="116"/>
@@ -4114,7 +4135,7 @@
       <c r="AB32" s="48"/>
     </row>
     <row r="33" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="115" t="s">
+      <c r="A33" s="136" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="116"/>
@@ -4154,7 +4175,7 @@
       <c r="AB33" s="49"/>
     </row>
     <row r="34" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="136" t="s">
         <v>146</v>
       </c>
       <c r="B34" s="116"/>
@@ -4194,7 +4215,7 @@
       <c r="AB34" s="50"/>
     </row>
     <row r="35" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="136" t="s">
         <v>147</v>
       </c>
       <c r="B35" s="116"/>
@@ -4234,71 +4255,71 @@
       <c r="AB35" s="49"/>
     </row>
     <row r="36" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="117" t="s">
+      <c r="C36" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="117" t="s">
+      <c r="D36" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="117" t="s">
+      <c r="E36" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="117" t="s">
+      <c r="F36" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="117" t="s">
+      <c r="G36" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="117">
+      <c r="H36" s="115">
         <v>2E-3</v>
       </c>
-      <c r="I36" s="117">
+      <c r="I36" s="115">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J36" s="117" t="s">
+      <c r="J36" s="115" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="64"/>
-      <c r="L36" s="117" t="s">
+      <c r="L36" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="M36" s="117" t="s">
+      <c r="M36" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="117">
+      <c r="N36" s="115">
         <v>15</v>
       </c>
-      <c r="O36" s="117">
+      <c r="O36" s="115">
         <v>13</v>
       </c>
-      <c r="P36" s="117">
+      <c r="P36" s="115">
         <v>64</v>
       </c>
-      <c r="Q36" s="117">
+      <c r="Q36" s="115">
         <v>0</v>
       </c>
-      <c r="R36" s="117">
+      <c r="R36" s="115">
         <v>0.4</v>
       </c>
       <c r="S36" s="77"/>
       <c r="T36" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="U36" s="118" t="s">
+      <c r="U36" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="V36" s="134">
+      <c r="V36" s="119">
         <v>0.91606262570521801</v>
       </c>
       <c r="W36" s="42"/>
       <c r="X36" s="42"/>
-      <c r="Y36" s="137" t="s">
+      <c r="Y36" s="122" t="s">
         <v>114</v>
       </c>
       <c r="Z36" s="44" t="s">
@@ -4335,8 +4356,8 @@
       <c r="T37" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="U37" s="119"/>
-      <c r="V37" s="135"/>
+      <c r="U37" s="139"/>
+      <c r="V37" s="120"/>
       <c r="W37" s="42"/>
       <c r="X37" s="42"/>
       <c r="Y37" s="116"/>
@@ -4374,8 +4395,8 @@
       <c r="T38" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="U38" s="119"/>
-      <c r="V38" s="135"/>
+      <c r="U38" s="139"/>
+      <c r="V38" s="120"/>
       <c r="W38" s="42"/>
       <c r="X38" s="42"/>
       <c r="Y38" s="116"/>
@@ -4391,33 +4412,33 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
       <c r="K39" s="77"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
       <c r="S39" s="77"/>
       <c r="T39" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="U39" s="119"/>
-      <c r="V39" s="136"/>
+      <c r="U39" s="139"/>
+      <c r="V39" s="121"/>
       <c r="W39" s="42"/>
       <c r="X39" s="42"/>
-      <c r="Y39" s="113"/>
+      <c r="Y39" s="117"/>
       <c r="Z39" s="44" t="s">
         <v>123</v>
       </c>
@@ -4430,33 +4451,33 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
       <c r="K40" s="77"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="117"/>
+      <c r="Q40" s="117"/>
+      <c r="R40" s="117"/>
       <c r="S40" s="77"/>
       <c r="T40" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="U40" s="120"/>
-      <c r="V40" s="136"/>
+      <c r="U40" s="140"/>
+      <c r="V40" s="121"/>
       <c r="W40" s="42"/>
       <c r="X40" s="42"/>
-      <c r="Y40" s="113"/>
+      <c r="Y40" s="117"/>
       <c r="Z40" s="44" t="s">
         <v>125</v>
       </c>
@@ -4627,71 +4648,71 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="112" t="s">
+      <c r="A43" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="112" t="s">
+      <c r="B43" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="112" t="s">
+      <c r="C43" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="112" t="s">
+      <c r="D43" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="112" t="s">
+      <c r="E43" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="F43" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="112" t="s">
+      <c r="G43" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="112">
+      <c r="H43" s="118">
         <v>2E-3</v>
       </c>
-      <c r="I43" s="112">
+      <c r="I43" s="118">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J43" s="112" t="s">
+      <c r="J43" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="138"/>
-      <c r="L43" s="112" t="s">
+      <c r="K43" s="113"/>
+      <c r="L43" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="M43" s="112" t="s">
+      <c r="M43" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="N43" s="112">
+      <c r="N43" s="118">
         <v>18</v>
       </c>
-      <c r="O43" s="112">
+      <c r="O43" s="118">
         <v>16</v>
       </c>
-      <c r="P43" s="112">
+      <c r="P43" s="118">
         <v>64</v>
       </c>
-      <c r="Q43" s="112">
+      <c r="Q43" s="118">
         <v>0</v>
       </c>
-      <c r="R43" s="112">
+      <c r="R43" s="118">
         <v>0.4</v>
       </c>
       <c r="S43" s="82"/>
-      <c r="T43" s="112" t="s">
+      <c r="T43" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="U43" s="112" t="s">
+      <c r="U43" s="118" t="s">
         <v>153</v>
       </c>
       <c r="V43" s="69">
         <v>0.910999237559735</v>
       </c>
-      <c r="W43" s="112"/>
-      <c r="X43" s="112"/>
-      <c r="Y43" s="114" t="s">
+      <c r="W43" s="118"/>
+      <c r="X43" s="118"/>
+      <c r="Y43" s="137" t="s">
         <v>167</v>
       </c>
       <c r="Z43" s="67" t="s">
@@ -4706,33 +4727,33 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="113"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
+      <c r="A44" s="117"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="117"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="117"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="117"/>
       <c r="S44" s="82"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
+      <c r="T44" s="117"/>
+      <c r="U44" s="117"/>
       <c r="V44" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
+      <c r="W44" s="117"/>
+      <c r="X44" s="117"/>
+      <c r="Y44" s="117"/>
       <c r="Z44" s="67" t="s">
         <v>170</v>
       </c>
@@ -5085,79 +5106,79 @@
       </c>
     </row>
     <row r="49" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="140" t="s">
+      <c r="A49" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="B49" s="140" t="s">
+      <c r="B49" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="140" t="s">
+      <c r="C49" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="140" t="s">
+      <c r="D49" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="140" t="s">
+      <c r="E49" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="140" t="s">
+      <c r="F49" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="G49" s="140" t="s">
+      <c r="G49" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="140">
+      <c r="H49" s="112">
         <v>2E-3</v>
       </c>
-      <c r="I49" s="140">
+      <c r="I49" s="112">
         <v>0</v>
       </c>
-      <c r="J49" s="140" t="s">
+      <c r="J49" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="K49" s="140" t="s">
+      <c r="K49" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="L49" s="140" t="s">
+      <c r="L49" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="M49" s="140" t="s">
+      <c r="M49" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="N49" s="140">
+      <c r="N49" s="112">
         <v>30</v>
       </c>
-      <c r="O49" s="140">
+      <c r="O49" s="112">
         <v>30</v>
       </c>
-      <c r="P49" s="140">
+      <c r="P49" s="112">
         <v>128</v>
       </c>
-      <c r="Q49" s="140">
+      <c r="Q49" s="112">
         <v>0</v>
       </c>
-      <c r="R49" s="140">
+      <c r="R49" s="112">
         <v>0.4</v>
       </c>
       <c r="S49" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="T49" s="140" t="s">
+      <c r="T49" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="U49" s="140" t="s">
+      <c r="U49" s="112" t="s">
         <v>175</v>
       </c>
       <c r="V49" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W49" s="140" t="s">
+      <c r="W49" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="X49" s="140" t="s">
+      <c r="X49" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="Y49" s="142" t="s">
+      <c r="Y49" s="110" t="s">
         <v>201</v>
       </c>
       <c r="Z49" s="74" t="s">
@@ -5172,35 +5193,35 @@
       </c>
     </row>
     <row r="50" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="141"/>
-      <c r="B50" s="141"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="141"/>
-      <c r="J50" s="141"/>
-      <c r="K50" s="141"/>
-      <c r="L50" s="141"/>
-      <c r="M50" s="141"/>
-      <c r="N50" s="141"/>
-      <c r="O50" s="141"/>
-      <c r="P50" s="141"/>
-      <c r="Q50" s="141"/>
-      <c r="R50" s="141"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
       <c r="S50" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="T50" s="141"/>
-      <c r="U50" s="141"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
       <c r="V50" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W50" s="141"/>
-      <c r="X50" s="141"/>
-      <c r="Y50" s="141"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
       <c r="Z50" s="74" t="s">
         <v>217</v>
       </c>
@@ -5213,35 +5234,35 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="141"/>
-      <c r="B51" s="141"/>
-      <c r="C51" s="141"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="141"/>
-      <c r="J51" s="141"/>
-      <c r="K51" s="141"/>
-      <c r="L51" s="141"/>
-      <c r="M51" s="141"/>
-      <c r="N51" s="141"/>
-      <c r="O51" s="141"/>
-      <c r="P51" s="141"/>
-      <c r="Q51" s="141"/>
-      <c r="R51" s="141"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
       <c r="S51" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="T51" s="141"/>
-      <c r="U51" s="141"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
       <c r="V51" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W51" s="141"/>
-      <c r="X51" s="141"/>
-      <c r="Y51" s="141"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
       <c r="Z51" s="74" t="s">
         <v>218</v>
       </c>
@@ -5254,35 +5275,35 @@
       </c>
     </row>
     <row r="52" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="111"/>
-      <c r="L52" s="111"/>
-      <c r="M52" s="111"/>
-      <c r="N52" s="111"/>
-      <c r="O52" s="111"/>
-      <c r="P52" s="111"/>
-      <c r="Q52" s="111"/>
-      <c r="R52" s="111"/>
+      <c r="A52" s="106"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+      <c r="O52" s="106"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="106"/>
       <c r="S52" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="T52" s="111"/>
-      <c r="U52" s="111"/>
+      <c r="T52" s="106"/>
+      <c r="U52" s="106"/>
       <c r="V52" s="84">
         <v>0.89781005308032003</v>
       </c>
-      <c r="W52" s="111"/>
-      <c r="X52" s="111"/>
-      <c r="Y52" s="111"/>
+      <c r="W52" s="106"/>
+      <c r="X52" s="106"/>
+      <c r="Y52" s="106"/>
       <c r="Z52" s="74" t="s">
         <v>219</v>
       </c>
@@ -6129,47 +6150,47 @@
       <c r="A63" s="88">
         <v>44735</v>
       </c>
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="110" t="s">
+      <c r="C63" s="105" t="s">
         <v>253</v>
       </c>
-      <c r="D63" s="110" t="s">
+      <c r="D63" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="E63" s="110" t="s">
+      <c r="E63" s="105" t="s">
         <v>245</v>
       </c>
-      <c r="F63" s="110" t="s">
+      <c r="F63" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="G63" s="110" t="s">
+      <c r="G63" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="110">
+      <c r="H63" s="105">
         <v>1E-3</v>
       </c>
-      <c r="I63" s="110"/>
-      <c r="J63" s="110" t="s">
+      <c r="I63" s="105"/>
+      <c r="J63" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="K63" s="110" t="s">
+      <c r="K63" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="L63" s="110" t="s">
+      <c r="L63" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="M63" s="110" t="s">
+      <c r="M63" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="N63" s="110">
+      <c r="N63" s="105">
         <v>29</v>
       </c>
-      <c r="O63" s="110">
+      <c r="O63" s="105">
         <v>29</v>
       </c>
-      <c r="P63" s="110">
+      <c r="P63" s="105">
         <v>32</v>
       </c>
       <c r="Q63" s="4"/>
@@ -6177,22 +6198,22 @@
         <v>0.5</v>
       </c>
       <c r="S63" s="4"/>
-      <c r="T63" s="110" t="s">
+      <c r="T63" s="105" t="s">
         <v>117</v>
       </c>
       <c r="U63" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="V63" s="110">
+      <c r="V63" s="105">
         <v>0.89729999999999999</v>
       </c>
-      <c r="W63" s="110" t="s">
+      <c r="W63" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="X63" s="110" t="s">
+      <c r="X63" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Y63" s="108" t="s">
+      <c r="Y63" s="141" t="s">
         <v>19</v>
       </c>
       <c r="Z63" s="6" t="s">
@@ -6208,34 +6229,34 @@
     </row>
     <row r="64" spans="1:29" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="88"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="111"/>
-      <c r="F64" s="111"/>
-      <c r="G64" s="111"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="111"/>
-      <c r="J64" s="111"/>
-      <c r="K64" s="111"/>
-      <c r="L64" s="111"/>
-      <c r="M64" s="111"/>
-      <c r="N64" s="111"/>
-      <c r="O64" s="111"/>
-      <c r="P64" s="111"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="106"/>
+      <c r="K64" s="106"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="106"/>
+      <c r="N64" s="106"/>
+      <c r="O64" s="106"/>
+      <c r="P64" s="106"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4">
         <v>0.4</v>
       </c>
       <c r="S64" s="4"/>
-      <c r="T64" s="111"/>
+      <c r="T64" s="106"/>
       <c r="U64" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="V64" s="111"/>
-      <c r="W64" s="111"/>
-      <c r="X64" s="111"/>
-      <c r="Y64" s="109"/>
+      <c r="V64" s="106"/>
+      <c r="W64" s="106"/>
+      <c r="X64" s="106"/>
+      <c r="Y64" s="142"/>
       <c r="Z64" s="6" t="s">
         <v>262</v>
       </c>
@@ -6329,27 +6350,27 @@
       </c>
     </row>
     <row r="66" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="103">
+      <c r="A66" s="102">
         <v>44747</v>
       </c>
-      <c r="B66" s="105" t="s">
+      <c r="B66" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
-      <c r="G66" s="106"/>
-      <c r="H66" s="106"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="106"/>
-      <c r="K66" s="106"/>
-      <c r="L66" s="106"/>
-      <c r="M66" s="106"/>
-      <c r="N66" s="106"/>
-      <c r="O66" s="106"/>
-      <c r="P66" s="106"/>
-      <c r="Q66" s="107"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="108"/>
+      <c r="K66" s="108"/>
+      <c r="L66" s="108"/>
+      <c r="M66" s="108"/>
+      <c r="N66" s="108"/>
+      <c r="O66" s="108"/>
+      <c r="P66" s="108"/>
+      <c r="Q66" s="109"/>
       <c r="R66" s="89">
         <v>0.4</v>
       </c>
@@ -6369,27 +6390,27 @@
       <c r="AB66" s="49"/>
     </row>
     <row r="67" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="103">
+      <c r="A67" s="102">
         <v>44747</v>
       </c>
-      <c r="B67" s="105" t="s">
+      <c r="B67" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="106"/>
-      <c r="K67" s="106"/>
-      <c r="L67" s="106"/>
-      <c r="M67" s="106"/>
-      <c r="N67" s="106"/>
-      <c r="O67" s="106"/>
-      <c r="P67" s="106"/>
-      <c r="Q67" s="107"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="108"/>
+      <c r="L67" s="108"/>
+      <c r="M67" s="108"/>
+      <c r="N67" s="108"/>
+      <c r="O67" s="108"/>
+      <c r="P67" s="108"/>
+      <c r="Q67" s="109"/>
       <c r="R67" s="89">
         <v>0.4</v>
       </c>
@@ -6409,7 +6430,7 @@
       <c r="AB67" s="49"/>
     </row>
     <row r="68" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="93">
+      <c r="A68" s="92">
         <v>44737</v>
       </c>
       <c r="B68" s="19" t="s">
@@ -6430,10 +6451,10 @@
       <c r="G68" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="94">
+      <c r="H68" s="93">
         <v>1E-3</v>
       </c>
-      <c r="I68" s="94">
+      <c r="I68" s="93">
         <v>3.3800000000000002E-5</v>
       </c>
       <c r="J68" s="19" t="s">
@@ -6466,16 +6487,16 @@
       <c r="U68" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="V68" s="95">
+      <c r="V68" s="94">
         <v>0.90180000000000005</v>
       </c>
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
-      <c r="Y68" s="96"/>
+      <c r="Y68" s="95"/>
       <c r="Z68" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="AA68" s="97">
+      <c r="AA68" s="96">
         <v>0.87</v>
       </c>
       <c r="AB68" s="21">
@@ -6484,27 +6505,27 @@
       </c>
     </row>
     <row r="69" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="103">
+      <c r="A69" s="102">
         <v>44748</v>
       </c>
-      <c r="B69" s="105" t="s">
+      <c r="B69" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="106"/>
-      <c r="H69" s="106"/>
-      <c r="I69" s="106"/>
-      <c r="J69" s="106"/>
-      <c r="K69" s="106"/>
-      <c r="L69" s="106"/>
-      <c r="M69" s="106"/>
-      <c r="N69" s="106"/>
-      <c r="O69" s="106"/>
-      <c r="P69" s="106"/>
-      <c r="Q69" s="107"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="108"/>
+      <c r="L69" s="108"/>
+      <c r="M69" s="108"/>
+      <c r="N69" s="108"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="108"/>
+      <c r="Q69" s="109"/>
       <c r="R69" s="90">
         <v>0.4</v>
       </c>
@@ -6530,27 +6551,27 @@
       </c>
     </row>
     <row r="70" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="103">
+      <c r="A70" s="102">
         <v>44748</v>
       </c>
-      <c r="B70" s="105" t="s">
+      <c r="B70" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106"/>
-      <c r="G70" s="106"/>
-      <c r="H70" s="106"/>
-      <c r="I70" s="106"/>
-      <c r="J70" s="106"/>
-      <c r="K70" s="106"/>
-      <c r="L70" s="106"/>
-      <c r="M70" s="106"/>
-      <c r="N70" s="106"/>
-      <c r="O70" s="106"/>
-      <c r="P70" s="106"/>
-      <c r="Q70" s="107"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="108"/>
+      <c r="K70" s="108"/>
+      <c r="L70" s="108"/>
+      <c r="M70" s="108"/>
+      <c r="N70" s="108"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="108"/>
+      <c r="Q70" s="109"/>
       <c r="R70" s="90"/>
       <c r="S70" s="90"/>
       <c r="T70" s="90"/>
@@ -6562,13 +6583,13 @@
       <c r="Z70" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="AA70" s="104">
+      <c r="AA70" s="103">
         <v>0.876</v>
       </c>
       <c r="AB70" s="49"/>
     </row>
     <row r="71" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="102">
+      <c r="A71" s="101">
         <v>44748</v>
       </c>
       <c r="B71" s="28" t="s">
@@ -6589,10 +6610,10 @@
       <c r="G71" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="98">
+      <c r="H71" s="97">
         <v>1E-3</v>
       </c>
-      <c r="I71" s="98">
+      <c r="I71" s="97">
         <v>4.6000000000000001E-4</v>
       </c>
       <c r="J71" s="28" t="s">
@@ -6625,16 +6646,16 @@
       <c r="U71" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="V71" s="99">
+      <c r="V71" s="98">
         <v>0.87229999999999996</v>
       </c>
       <c r="W71" s="28"/>
       <c r="X71" s="28"/>
-      <c r="Y71" s="100"/>
+      <c r="Y71" s="99"/>
       <c r="Z71" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="AA71" s="101">
+      <c r="AA71" s="100">
         <v>0.85899999999999999</v>
       </c>
       <c r="AB71" s="31">
@@ -6724,27 +6745,27 @@
       </c>
     </row>
     <row r="73" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="103">
+      <c r="A73" s="102">
         <v>44748</v>
       </c>
-      <c r="B73" s="105" t="s">
+      <c r="B73" s="107" t="s">
         <v>282</v>
       </c>
-      <c r="C73" s="106"/>
-      <c r="D73" s="106"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="106"/>
-      <c r="G73" s="106"/>
-      <c r="H73" s="106"/>
-      <c r="I73" s="106"/>
-      <c r="J73" s="106"/>
-      <c r="K73" s="106"/>
-      <c r="L73" s="106"/>
-      <c r="M73" s="106"/>
-      <c r="N73" s="106"/>
-      <c r="O73" s="106"/>
-      <c r="P73" s="106"/>
-      <c r="Q73" s="107"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="108"/>
+      <c r="L73" s="108"/>
+      <c r="M73" s="108"/>
+      <c r="N73" s="108"/>
+      <c r="O73" s="108"/>
+      <c r="P73" s="108"/>
+      <c r="Q73" s="109"/>
       <c r="R73" s="90">
         <v>0.4</v>
       </c>
@@ -6764,27 +6785,27 @@
       <c r="AB73" s="50"/>
     </row>
     <row r="74" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="103">
+      <c r="A74" s="102">
         <v>44749</v>
       </c>
-      <c r="B74" s="105" t="s">
+      <c r="B74" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="C74" s="106"/>
-      <c r="D74" s="106"/>
-      <c r="E74" s="106"/>
-      <c r="F74" s="106"/>
-      <c r="G74" s="106"/>
-      <c r="H74" s="106"/>
-      <c r="I74" s="106"/>
-      <c r="J74" s="106"/>
-      <c r="K74" s="106"/>
-      <c r="L74" s="106"/>
-      <c r="M74" s="106"/>
-      <c r="N74" s="106"/>
-      <c r="O74" s="106"/>
-      <c r="P74" s="106"/>
-      <c r="Q74" s="107"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
+      <c r="I74" s="108"/>
+      <c r="J74" s="108"/>
+      <c r="K74" s="108"/>
+      <c r="L74" s="108"/>
+      <c r="M74" s="108"/>
+      <c r="N74" s="108"/>
+      <c r="O74" s="108"/>
+      <c r="P74" s="108"/>
+      <c r="Q74" s="109"/>
       <c r="R74" s="90">
         <v>0.4</v>
       </c>
@@ -6804,27 +6825,27 @@
       <c r="AB74" s="50"/>
     </row>
     <row r="75" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="103">
+      <c r="A75" s="102">
         <v>44749</v>
       </c>
-      <c r="B75" s="105" t="s">
+      <c r="B75" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="C75" s="106"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="106"/>
-      <c r="G75" s="106"/>
-      <c r="H75" s="106"/>
-      <c r="I75" s="106"/>
-      <c r="J75" s="106"/>
-      <c r="K75" s="106"/>
-      <c r="L75" s="106"/>
-      <c r="M75" s="106"/>
-      <c r="N75" s="106"/>
-      <c r="O75" s="106"/>
-      <c r="P75" s="106"/>
-      <c r="Q75" s="107"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
+      <c r="I75" s="108"/>
+      <c r="J75" s="108"/>
+      <c r="K75" s="108"/>
+      <c r="L75" s="108"/>
+      <c r="M75" s="108"/>
+      <c r="N75" s="108"/>
+      <c r="O75" s="108"/>
+      <c r="P75" s="108"/>
+      <c r="Q75" s="109"/>
       <c r="R75" s="90">
         <v>0.4</v>
       </c>
@@ -6838,36 +6859,40 @@
       <c r="Z75" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="AA75" s="49">
+      <c r="AA75" s="50">
         <v>0.876</v>
       </c>
       <c r="AB75" s="50"/>
     </row>
     <row r="76" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="103">
+      <c r="A76" s="102">
         <v>44749</v>
       </c>
-      <c r="B76" s="105" t="s">
+      <c r="B76" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="C76" s="106"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="106"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="106"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="106"/>
-      <c r="L76" s="106"/>
-      <c r="M76" s="106"/>
-      <c r="N76" s="106"/>
-      <c r="O76" s="106"/>
-      <c r="P76" s="106"/>
-      <c r="Q76" s="107"/>
-      <c r="R76" s="90"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="108"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="108"/>
+      <c r="H76" s="108"/>
+      <c r="I76" s="108"/>
+      <c r="J76" s="108"/>
+      <c r="K76" s="108"/>
+      <c r="L76" s="108"/>
+      <c r="M76" s="108"/>
+      <c r="N76" s="108"/>
+      <c r="O76" s="108"/>
+      <c r="P76" s="108"/>
+      <c r="Q76" s="109"/>
+      <c r="R76" s="90">
+        <v>0.4</v>
+      </c>
       <c r="S76" s="90"/>
-      <c r="T76" s="90"/>
+      <c r="T76" s="90" t="s">
+        <v>294</v>
+      </c>
       <c r="U76" s="90"/>
       <c r="V76" s="46"/>
       <c r="W76" s="46"/>
@@ -6876,147 +6901,265 @@
       <c r="Z76" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="AA76" s="49">
+      <c r="AA76" s="143">
         <v>0.877</v>
       </c>
       <c r="AB76" s="50"/>
     </row>
-    <row r="77" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="103"/>
-      <c r="B77" s="105"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106"/>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="106"/>
-      <c r="J77" s="106"/>
-      <c r="K77" s="106"/>
-      <c r="L77" s="106"/>
-      <c r="M77" s="106"/>
-      <c r="N77" s="106"/>
-      <c r="O77" s="106"/>
-      <c r="P77" s="106"/>
-      <c r="Q77" s="107"/>
-      <c r="R77" s="92"/>
-      <c r="S77" s="92"/>
-      <c r="T77" s="92"/>
-      <c r="U77" s="92"/>
-      <c r="V77" s="46"/>
-      <c r="W77" s="46"/>
-      <c r="X77" s="46"/>
-      <c r="Y77" s="47"/>
-      <c r="Z77" s="47"/>
-      <c r="AA77" s="49"/>
-      <c r="AB77" s="50"/>
+    <row r="77" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="101">
+        <v>44749</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="97">
+        <v>1E-3</v>
+      </c>
+      <c r="I77" s="97">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="J77" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K77" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="L77" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M77" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="N77" s="28">
+        <v>67</v>
+      </c>
+      <c r="O77" s="28">
+        <v>58</v>
+      </c>
+      <c r="P77" s="28">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="V77" s="98">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="99"/>
+      <c r="Z77" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA77" s="100">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AB77" s="31">
+        <f>V77-AA77</f>
+        <v>2.9399999999999982E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="101">
+        <v>44749</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="97">
+        <v>1E-3</v>
+      </c>
+      <c r="I78" s="97">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="J78" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K78" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="L78" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M78" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="N78" s="28">
+        <v>67</v>
+      </c>
+      <c r="O78" s="28">
+        <v>61</v>
+      </c>
+      <c r="P78" s="28">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="S78" s="28"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="V78" s="98">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="W78" s="28"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="99"/>
+      <c r="Z78" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA78" s="100">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="AB78" s="31">
+        <f>V78-AA78</f>
+        <v>3.0399999999999983E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="102">
+        <v>44750</v>
+      </c>
+      <c r="B79" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="108"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="108"/>
+      <c r="G79" s="108"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="108"/>
+      <c r="J79" s="108"/>
+      <c r="K79" s="108"/>
+      <c r="L79" s="108"/>
+      <c r="M79" s="108"/>
+      <c r="N79" s="108"/>
+      <c r="O79" s="108"/>
+      <c r="P79" s="108"/>
+      <c r="Q79" s="109"/>
+      <c r="R79" s="104">
+        <v>0.4</v>
+      </c>
+      <c r="S79" s="104"/>
+      <c r="T79" s="104"/>
+      <c r="U79" s="104"/>
+      <c r="V79" s="46">
+        <f>(V77+V78)/2</f>
+        <v>0.89789999999999992</v>
+      </c>
+      <c r="W79" s="46"/>
+      <c r="X79" s="46"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+      <c r="AA79" s="50">
+        <v>0.87</v>
+      </c>
+      <c r="AB79" s="50">
+        <f>V79-AA79</f>
+        <v>2.7899999999999925E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="102">
+        <v>44751</v>
+      </c>
+      <c r="B80" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" s="108"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="108"/>
+      <c r="G80" s="108"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="108"/>
+      <c r="J80" s="108"/>
+      <c r="K80" s="108"/>
+      <c r="L80" s="108"/>
+      <c r="M80" s="108"/>
+      <c r="N80" s="108"/>
+      <c r="O80" s="108"/>
+      <c r="P80" s="108"/>
+      <c r="Q80" s="109"/>
+      <c r="R80" s="104">
+        <v>0.4</v>
+      </c>
+      <c r="S80" s="104"/>
+      <c r="T80" s="104"/>
+      <c r="U80" s="104"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="46"/>
+      <c r="X80" s="46"/>
+      <c r="Y80" s="47"/>
+      <c r="Z80" s="47"/>
+      <c r="AA80" s="143">
+        <v>0.877</v>
+      </c>
+      <c r="AB80" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB61" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="151">
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
-    <mergeCell ref="B77:Q77"/>
-    <mergeCell ref="Y49:Y52"/>
-    <mergeCell ref="O49:O52"/>
-    <mergeCell ref="P49:P52"/>
-    <mergeCell ref="Q49:Q52"/>
-    <mergeCell ref="R49:R52"/>
-    <mergeCell ref="T49:T52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="N49:N52"/>
-    <mergeCell ref="U49:U52"/>
-    <mergeCell ref="W49:W52"/>
-    <mergeCell ref="X49:X52"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="R36:R40"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="V36:V40"/>
-    <mergeCell ref="Y36:Y40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="J36:J40"/>
-    <mergeCell ref="L36:L40"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="N36:N40"/>
-    <mergeCell ref="O36:O40"/>
-    <mergeCell ref="P36:P40"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="A31:Q31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="A33:Q33"/>
+  <mergeCells count="152">
+    <mergeCell ref="B79:Q79"/>
+    <mergeCell ref="B80:Q80"/>
+    <mergeCell ref="B76:Q76"/>
+    <mergeCell ref="Y63:Y64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
     <mergeCell ref="W43:W44"/>
     <mergeCell ref="X43:X44"/>
     <mergeCell ref="Y43:Y44"/>
@@ -7041,6 +7184,108 @@
     <mergeCell ref="L43:L44"/>
     <mergeCell ref="M43:M44"/>
     <mergeCell ref="N43:N44"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A31:Q31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="V36:V40"/>
+    <mergeCell ref="Y36:Y40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:N40"/>
+    <mergeCell ref="O36:O40"/>
+    <mergeCell ref="P36:P40"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="R36:R40"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="Y49:Y52"/>
+    <mergeCell ref="O49:O52"/>
+    <mergeCell ref="P49:P52"/>
+    <mergeCell ref="Q49:Q52"/>
+    <mergeCell ref="R49:R52"/>
+    <mergeCell ref="T49:T52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="N49:N52"/>
+    <mergeCell ref="U49:U52"/>
+    <mergeCell ref="W49:W52"/>
+    <mergeCell ref="X49:X52"/>
     <mergeCell ref="B66:Q66"/>
     <mergeCell ref="B67:Q67"/>
     <mergeCell ref="B69:Q69"/>
@@ -7048,23 +7293,6 @@
     <mergeCell ref="B73:Q73"/>
     <mergeCell ref="B74:Q74"/>
     <mergeCell ref="B75:Q75"/>
-    <mergeCell ref="B76:Q76"/>
-    <mergeCell ref="Y63:Y64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y2" r:id="rId1" xr:uid="{B194D28D-E667-4CDB-BE58-629A6A397331}"/>
